--- a/data/processed/processed_tail_risk_results.xlsx
+++ b/data/processed/processed_tail_risk_results.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C443"/>
+  <dimension ref="A1:C445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,10 +467,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00663716814159292</v>
+        <v>0.006607929515418502</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01176470588235294</v>
+        <v>0.01175088131609871</v>
       </c>
       <c r="C3" t="n">
         <v>0.520817416213034</v>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.00663716814159292</v>
+        <v>0.006607929515418502</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01764705882352941</v>
+        <v>0.01762632197414806</v>
       </c>
       <c r="C4" t="n">
         <v>0.5187471465950558</v>
@@ -489,10 +489,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.00663716814159292</v>
+        <v>0.006607929515418502</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02</v>
+        <v>0.0199764982373678</v>
       </c>
       <c r="C5" t="n">
         <v>0.5166762330673198</v>
@@ -500,10 +500,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.00663716814159292</v>
+        <v>0.006607929515418502</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02117647058823529</v>
+        <v>0.02115158636897767</v>
       </c>
       <c r="C6" t="n">
         <v>0.5146047465913527</v>
@@ -511,10 +511,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01106194690265487</v>
+        <v>0.01101321585903084</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02352941176470588</v>
+        <v>0.02350176263219741</v>
       </c>
       <c r="C7" t="n">
         <v>0.4693546966658943</v>
@@ -522,10 +522,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01548672566371681</v>
+        <v>0.01541850220264317</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02937720329024677</v>
       </c>
       <c r="C8" t="n">
         <v>0.4672895042849586</v>
@@ -533,10 +533,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01991150442477876</v>
+        <v>0.01982378854625551</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03058823529411765</v>
+        <v>0.03055229142185664</v>
       </c>
       <c r="C9" t="n">
         <v>0.465225432180508</v>
@@ -544,10 +544,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.02876106194690265</v>
+        <v>0.02863436123348018</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03294117647058824</v>
+        <v>0.03290246768507638</v>
       </c>
       <c r="C10" t="n">
         <v>0.4631625503769325</v>
@@ -555,10 +555,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0331858407079646</v>
+        <v>0.03303964757709251</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03411764705882353</v>
+        <v>0.03407755581668625</v>
       </c>
       <c r="C11" t="n">
         <v>0.4611009287360517</v>
@@ -566,10 +566,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0331858407079646</v>
+        <v>0.03303964757709251</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03647058823529412</v>
+        <v>0.036427732079906</v>
       </c>
       <c r="C12" t="n">
         <v>0.4212358589694379</v>
@@ -577,10 +577,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0331858407079646</v>
+        <v>0.03303964757709251</v>
       </c>
       <c r="B13" t="n">
-        <v>0.04</v>
+        <v>0.0399529964747356</v>
       </c>
       <c r="C13" t="n">
         <v>0.4171971010225338</v>
@@ -588,10 +588,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0331858407079646</v>
+        <v>0.03303964757709251</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05294117647058823</v>
+        <v>0.05287896592244418</v>
       </c>
       <c r="C14" t="n">
         <v>0.4151818450318829</v>
@@ -599,10 +599,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.0331858407079646</v>
+        <v>0.03303964757709251</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05764705882352941</v>
+        <v>0.05757931844888366</v>
       </c>
       <c r="C15" t="n">
         <v>0.4131694224486013</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0331858407079646</v>
+        <v>0.03303964757709251</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05875440658049354</v>
       </c>
       <c r="C16" t="n">
         <v>0.4097709587280932</v>
@@ -621,10 +621,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.03539823008849557</v>
+        <v>0.03524229074889868</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05875440658049354</v>
       </c>
       <c r="C17" t="n">
         <v>0.4083193307196384</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.04867256637168142</v>
+        <v>0.04845814977973568</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05875440658049354</v>
       </c>
       <c r="C18" t="n">
         <v>0.4063170608965192</v>
@@ -643,10 +643,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.05088495575221239</v>
+        <v>0.05066079295154185</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05875440658049354</v>
       </c>
       <c r="C19" t="n">
         <v>0.4045939855868582</v>
@@ -654,10 +654,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.05973451327433629</v>
+        <v>0.05947136563876652</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05875440658049354</v>
       </c>
       <c r="C20" t="n">
         <v>0.4043179002198473</v>
@@ -665,10 +665,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.07079646017699115</v>
+        <v>0.07048458149779736</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05875440658049354</v>
       </c>
       <c r="C21" t="n">
         <v>0.4023219100542328</v>
@@ -676,10 +676,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.07079646017699115</v>
+        <v>0.07048458149779736</v>
       </c>
       <c r="B22" t="n">
-        <v>0.06235294117647059</v>
+        <v>0.06227967097532315</v>
       </c>
       <c r="C22" t="n">
         <v>0.4017716619793744</v>
@@ -687,10 +687,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.084070796460177</v>
+        <v>0.08370044052863436</v>
       </c>
       <c r="B23" t="n">
-        <v>0.06235294117647059</v>
+        <v>0.06227967097532315</v>
       </c>
       <c r="C23" t="n">
         <v>0.4003291513520504</v>
@@ -698,10 +698,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.084070796460177</v>
+        <v>0.08370044052863436</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06470588235294118</v>
+        <v>0.06462984723854288</v>
       </c>
       <c r="C24" t="n">
         <v>0.3997798057087104</v>
@@ -709,10 +709,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.08628318584070796</v>
+        <v>0.08590308370044053</v>
       </c>
       <c r="B25" t="n">
-        <v>0.06470588235294118</v>
+        <v>0.06462984723854288</v>
       </c>
       <c r="C25" t="n">
         <v>0.3986144195189757</v>
@@ -720,10 +720,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.08628318584070796</v>
+        <v>0.08590308370044053</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06941176470588235</v>
+        <v>0.06933019976498238</v>
       </c>
       <c r="C26" t="n">
         <v>0.3942069386789869</v>
@@ -731,10 +731,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.08628318584070796</v>
+        <v>0.08590308370044053</v>
       </c>
       <c r="B27" t="n">
-        <v>0.07411764705882352</v>
+        <v>0.07403055229142186</v>
       </c>
       <c r="C27" t="n">
         <v>0.3882807751794885</v>
@@ -742,10 +742,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.08628318584070796</v>
+        <v>0.08590308370044053</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07647058823529412</v>
+        <v>0.07638072855464159</v>
       </c>
       <c r="C28" t="n">
         <v>0.3863126116548626</v>
@@ -753,10 +753,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.08628318584070796</v>
+        <v>0.08590308370044053</v>
       </c>
       <c r="B29" t="n">
-        <v>0.08</v>
+        <v>0.07990599294947121</v>
       </c>
       <c r="C29" t="n">
         <v>0.3843481562994426</v>
@@ -764,10 +764,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.08628318584070796</v>
+        <v>0.08590308370044053</v>
       </c>
       <c r="B30" t="n">
-        <v>0.08117647058823529</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C30" t="n">
         <v>0.3839690496047177</v>
@@ -775,10 +775,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.08849557522123894</v>
+        <v>0.0881057268722467</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08235294117647059</v>
+        <v>0.08225616921269095</v>
       </c>
       <c r="C31" t="n">
         <v>0.3834277680928303</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.09070796460176991</v>
+        <v>0.09030837004405286</v>
       </c>
       <c r="B32" t="n">
-        <v>0.08705882352941176</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C32" t="n">
         <v>0.3832596637080167</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.09070796460176991</v>
+        <v>0.09030837004405286</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08941176470588236</v>
+        <v>0.08930669800235018</v>
       </c>
       <c r="C33" t="n">
         <v>0.3820090932688844</v>
@@ -808,10 +808,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.09292035398230089</v>
+        <v>0.09251101321585903</v>
       </c>
       <c r="B34" t="n">
-        <v>0.09764705882352941</v>
+        <v>0.09753231492361927</v>
       </c>
       <c r="C34" t="n">
         <v>0.3814688637882818</v>
@@ -819,10 +819,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.1039823008849557</v>
+        <v>0.1035242290748899</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1117647058823529</v>
+        <v>0.1116333725029377</v>
       </c>
       <c r="C35" t="n">
         <v>0.3813010871162681</v>
@@ -830,10 +830,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.1039823008849557</v>
+        <v>0.1035242290748899</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1141176470588235</v>
+        <v>0.1139835487661575</v>
       </c>
       <c r="C36" t="n">
         <v>0.380052969286202</v>
@@ -841,10 +841,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.1039823008849557</v>
+        <v>0.1035242290748899</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1282352941176471</v>
+        <v>0.1280846063454759</v>
       </c>
       <c r="C37" t="n">
         <v>0.3795138072998704</v>
@@ -852,10 +852,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.1039823008849557</v>
+        <v>0.1035242290748899</v>
       </c>
       <c r="B38" t="n">
-        <v>0.131764705882353</v>
+        <v>0.1316098707403055</v>
       </c>
       <c r="C38" t="n">
         <v>0.3761524413087163</v>
@@ -863,10 +863,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.1061946902654867</v>
+        <v>0.105726872246696</v>
       </c>
       <c r="B39" t="n">
-        <v>0.131764705882353</v>
+        <v>0.1316098707403055</v>
       </c>
       <c r="C39" t="n">
         <v>0.3750128977155739</v>
@@ -874,10 +874,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.1061946902654867</v>
+        <v>0.105726872246696</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1329411764705882</v>
+        <v>0.1327849588719154</v>
       </c>
       <c r="C40" t="n">
         <v>0.3745002175387385</v>
@@ -885,10 +885,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.1061946902654867</v>
+        <v>0.105726872246696</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1411764705882353</v>
+        <v>0.1410105757931845</v>
       </c>
       <c r="C41" t="n">
         <v>0.3725593637968891</v>
@@ -896,10 +896,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.1061946902654867</v>
+        <v>0.105726872246696</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1435294117647059</v>
+        <v>0.1433607520564042</v>
       </c>
       <c r="C42" t="n">
         <v>0.3722679066091305</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.1084070796460177</v>
+        <v>0.1079295154185022</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1435294117647059</v>
+        <v>0.1433607520564042</v>
       </c>
       <c r="C43" t="n">
         <v>0.3711331301528732</v>
@@ -918,10 +918,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.1128318584070796</v>
+        <v>0.1123348017621145</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1529411764705882</v>
+        <v>0.1527614571092832</v>
       </c>
       <c r="C44" t="n">
         <v>0.370622608671916</v>
@@ -929,10 +929,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.1128318584070796</v>
+        <v>0.1123348017621145</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1541176470588235</v>
+        <v>0.1539365452408931</v>
       </c>
       <c r="C45" t="n">
         <v>0.370331772350915</v>
@@ -940,10 +940,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.1150442477876106</v>
+        <v>0.1145374449339207</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1541176470588235</v>
+        <v>0.1539365452408931</v>
       </c>
       <c r="C46" t="n">
         <v>0.3691994265942166</v>
@@ -951,10 +951,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.1150442477876106</v>
+        <v>0.1145374449339207</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1552941176470588</v>
+        <v>0.1551116333725029</v>
       </c>
       <c r="C47" t="n">
         <v>0.3687727348852354</v>
@@ -962,10 +962,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.1150442477876106</v>
+        <v>0.1145374449339207</v>
       </c>
       <c r="B48" t="n">
-        <v>0.16</v>
+        <v>0.1598119858989424</v>
       </c>
       <c r="C48" t="n">
         <v>0.3686900055983215</v>
@@ -973,10 +973,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.1150442477876106</v>
+        <v>0.1145374449339207</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1635294117647059</v>
+        <v>0.163337250293772</v>
       </c>
       <c r="C49" t="n">
         <v>0.3683997981337175</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.1150442477876106</v>
+        <v>0.1145374449339207</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1670588235294118</v>
+        <v>0.1668625146886016</v>
       </c>
       <c r="C50" t="n">
         <v>0.3645485406748339</v>
@@ -995,10 +995,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.1216814159292035</v>
+        <v>0.1211453744493392</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1670588235294118</v>
+        <v>0.1668625146886016</v>
       </c>
       <c r="C51" t="n">
         <v>0.3634236719224269</v>
@@ -1006,10 +1006,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.1216814159292035</v>
+        <v>0.1211453744493392</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1705882352941177</v>
+        <v>0.1703877790834313</v>
       </c>
       <c r="C52" t="n">
         <v>0.3610841553182748</v>
@@ -1017,10 +1017,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.1216814159292035</v>
+        <v>0.1211453744493392</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1729411764705882</v>
+        <v>0.172737955346651</v>
       </c>
       <c r="C53" t="n">
         <v>0.3607145507158517</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.1216814159292035</v>
+        <v>0.1211453744493392</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1741176470588235</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C54" t="n">
         <v>0.3595906763487211</v>
@@ -1039,10 +1039,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.1261061946902655</v>
+        <v>0.1255506607929515</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1741176470588235</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C55" t="n">
         <v>0.3576870380394334</v>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.1261061946902655</v>
+        <v>0.1255506607929515</v>
       </c>
       <c r="B56" t="n">
-        <v>0.18</v>
+        <v>0.1797884841363102</v>
       </c>
       <c r="C56" t="n">
         <v>0.3576829064376632</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.1438053097345133</v>
+        <v>0.1431718061674009</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1858823529411765</v>
+        <v>0.1856639247943596</v>
       </c>
       <c r="C57" t="n">
         <v>0.3575555954603205</v>
@@ -1072,10 +1072,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.1438053097345133</v>
+        <v>0.1431718061674009</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1870588235294118</v>
+        <v>0.1868390129259694</v>
       </c>
       <c r="C58" t="n">
         <v>0.3568982362844183</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.1460176991150443</v>
+        <v>0.145374449339207</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1941176470588235</v>
+        <v>0.1938895417156287</v>
       </c>
       <c r="C59" t="n">
         <v>0.3557796350099693</v>
@@ -1094,10 +1094,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.1592920353982301</v>
+        <v>0.1585903083700441</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1964705882352941</v>
+        <v>0.1962397179788484</v>
       </c>
       <c r="C60" t="n">
         <v>0.3556526263706565</v>
@@ -1105,10 +1105,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.1592920353982301</v>
+        <v>0.1585903083700441</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1976470588235294</v>
+        <v>0.1974148061104583</v>
       </c>
       <c r="C61" t="n">
         <v>0.3553638351994201</v>
@@ -1116,10 +1116,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.163716814159292</v>
+        <v>0.1629955947136564</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1976470588235294</v>
+        <v>0.1974148061104583</v>
       </c>
       <c r="C62" t="n">
         <v>0.3538850232859229</v>
@@ -1127,10 +1127,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.163716814159292</v>
+        <v>0.1629955947136564</v>
       </c>
       <c r="B63" t="n">
-        <v>0.2035294117647059</v>
+        <v>0.2032902467685076</v>
       </c>
       <c r="C63" t="n">
         <v>0.3538809114050137</v>
@@ -1138,10 +1138,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.163716814159292</v>
+        <v>0.1629955947136564</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.2056404230317274</v>
       </c>
       <c r="C64" t="n">
         <v>0.3534661131074306</v>
@@ -1149,10 +1149,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.165929203539823</v>
+        <v>0.1651982378854626</v>
       </c>
       <c r="B65" t="n">
-        <v>0.2070588235294118</v>
+        <v>0.2068155111633372</v>
       </c>
       <c r="C65" t="n">
         <v>0.3519867844145679</v>
@@ -1160,10 +1160,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.165929203539823</v>
+        <v>0.1651982378854626</v>
       </c>
       <c r="B66" t="n">
-        <v>0.208235294117647</v>
+        <v>0.2079905992949471</v>
       </c>
       <c r="C66" t="n">
         <v>0.3501013940182913</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.1747787610619469</v>
+        <v>0.1740088105726872</v>
       </c>
       <c r="B67" t="n">
-        <v>0.208235294117647</v>
+        <v>0.2079905992949471</v>
       </c>
       <c r="C67" t="n">
         <v>0.3482165941973838</v>
@@ -1182,10 +1182,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.1769911504424779</v>
+        <v>0.1762114537444934</v>
       </c>
       <c r="B68" t="n">
-        <v>0.208235294117647</v>
+        <v>0.2079905992949471</v>
       </c>
       <c r="C68" t="n">
         <v>0.3463365339419466</v>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.1814159292035398</v>
+        <v>0.1806167400881057</v>
       </c>
       <c r="B69" t="n">
-        <v>0.208235294117647</v>
+        <v>0.2079905992949471</v>
       </c>
       <c r="C69" t="n">
         <v>0.3444612598180603</v>
@@ -1204,10 +1204,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.1880530973451327</v>
+        <v>0.1872246696035242</v>
       </c>
       <c r="B70" t="n">
-        <v>0.208235294117647</v>
+        <v>0.2079905992949471</v>
       </c>
       <c r="C70" t="n">
         <v>0.3370089361136338</v>
@@ -1215,10 +1215,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.1880530973451327</v>
+        <v>0.1872246696035242</v>
       </c>
       <c r="B71" t="n">
-        <v>0.2105882352941177</v>
+        <v>0.2103407755581669</v>
       </c>
       <c r="C71" t="n">
         <v>0.3341419262682743</v>
@@ -1226,10 +1226,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.1880530973451327</v>
+        <v>0.1872246696035242</v>
       </c>
       <c r="B72" t="n">
-        <v>0.2164705882352941</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="C72" t="n">
         <v>0.3322991143313482</v>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.1880530973451327</v>
+        <v>0.1872246696035242</v>
       </c>
       <c r="B73" t="n">
-        <v>0.2176470588235294</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C73" t="n">
         <v>0.3319900724620359</v>
@@ -1248,10 +1248,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.1880530973451327</v>
+        <v>0.1872246696035242</v>
       </c>
       <c r="B74" t="n">
-        <v>0.2270588235294118</v>
+        <v>0.226792009400705</v>
       </c>
       <c r="C74" t="n">
         <v>0.3304614216653537</v>
@@ -1259,10 +1259,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.1880530973451327</v>
+        <v>0.1872246696035242</v>
       </c>
       <c r="B75" t="n">
-        <v>0.2317647058823529</v>
+        <v>0.2314923619271445</v>
       </c>
       <c r="C75" t="n">
         <v>0.3301532437968452</v>
@@ -1270,10 +1270,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.1880530973451327</v>
+        <v>0.1872246696035242</v>
       </c>
       <c r="B76" t="n">
-        <v>0.2329411764705882</v>
+        <v>0.2326674500587544</v>
       </c>
       <c r="C76" t="n">
         <v>0.3298505913487177</v>
@@ -1281,10 +1281,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.1880530973451327</v>
+        <v>0.1872246696035242</v>
       </c>
       <c r="B77" t="n">
-        <v>0.2435294117647059</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="C77" t="n">
         <v>0.3286288899125098</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.1902654867256637</v>
+        <v>0.1894273127753304</v>
       </c>
       <c r="B78" t="n">
-        <v>0.2435294117647059</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="C78" t="n">
         <v>0.3279708407597529</v>
@@ -1303,10 +1303,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.1902654867256637</v>
+        <v>0.1894273127753304</v>
       </c>
       <c r="B79" t="n">
-        <v>0.2470588235294118</v>
+        <v>0.2467685076380728</v>
       </c>
       <c r="C79" t="n">
         <v>0.3264951309732279</v>
@@ -1314,10 +1314,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.1902654867256637</v>
+        <v>0.1894273127753304</v>
       </c>
       <c r="B80" t="n">
-        <v>0.2494117647058824</v>
+        <v>0.2491186839012926</v>
       </c>
       <c r="C80" t="n">
         <v>0.3243738662470745</v>
@@ -1325,10 +1325,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.1902654867256637</v>
+        <v>0.1894273127753304</v>
       </c>
       <c r="B81" t="n">
-        <v>0.2541176470588235</v>
+        <v>0.2538190364277321</v>
       </c>
       <c r="C81" t="n">
         <v>0.322558829020734</v>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.1902654867256637</v>
+        <v>0.1894273127753304</v>
       </c>
       <c r="B82" t="n">
-        <v>0.2552941176470588</v>
+        <v>0.254994124559342</v>
       </c>
       <c r="C82" t="n">
         <v>0.320749126330248</v>
@@ -1347,10 +1347,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.1924778761061947</v>
+        <v>0.1916299559471366</v>
       </c>
       <c r="B83" t="n">
-        <v>0.2564705882352941</v>
+        <v>0.2561692126909518</v>
       </c>
       <c r="C83" t="n">
         <v>0.3207007468500315</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.1924778761061947</v>
+        <v>0.1916299559471366</v>
       </c>
       <c r="B84" t="n">
-        <v>0.26</v>
+        <v>0.2596944770857814</v>
       </c>
       <c r="C84" t="n">
         <v>0.3192422094296219</v>
@@ -1369,10 +1369,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.1924778761061947</v>
+        <v>0.1916299559471366</v>
       </c>
       <c r="B85" t="n">
-        <v>0.2670588235294117</v>
+        <v>0.2667450058754406</v>
       </c>
       <c r="C85" t="n">
         <v>0.3189447966629037</v>
@@ -1380,10 +1380,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.1946902654867257</v>
+        <v>0.1938325991189427</v>
       </c>
       <c r="B86" t="n">
-        <v>0.2670588235294117</v>
+        <v>0.2667450058754406</v>
       </c>
       <c r="C86" t="n">
         <v>0.3188965615640452</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.1946902654867257</v>
+        <v>0.1938325991189427</v>
       </c>
       <c r="B87" t="n">
-        <v>0.2694117647058824</v>
+        <v>0.2690951821386604</v>
       </c>
       <c r="C87" t="n">
         <v>0.317442395079279</v>
@@ -1402,10 +1402,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.1946902654867257</v>
+        <v>0.1938325991189427</v>
       </c>
       <c r="B88" t="n">
-        <v>0.271764705882353</v>
+        <v>0.2714453584018802</v>
       </c>
       <c r="C88" t="n">
         <v>0.3156480228217492</v>
@@ -1413,10 +1413,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.1946902654867257</v>
+        <v>0.1938325991189427</v>
       </c>
       <c r="B89" t="n">
-        <v>0.2741176470588235</v>
+        <v>0.2737955346650999</v>
       </c>
       <c r="C89" t="n">
         <v>0.3153524073619324</v>
@@ -1424,10 +1424,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.1946902654867257</v>
+        <v>0.1938325991189427</v>
       </c>
       <c r="B90" t="n">
-        <v>0.2752941176470588</v>
+        <v>0.2749706227967098</v>
       </c>
       <c r="C90" t="n">
         <v>0.3151598565498542</v>
@@ -1435,10 +1435,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.1946902654867257</v>
+        <v>0.1938325991189427</v>
       </c>
       <c r="B91" t="n">
-        <v>0.28</v>
+        <v>0.2796709753231492</v>
       </c>
       <c r="C91" t="n">
         <v>0.3135644217142444</v>
@@ -1446,10 +1446,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.1946902654867257</v>
+        <v>0.1938325991189427</v>
       </c>
       <c r="B92" t="n">
-        <v>0.2823529411764706</v>
+        <v>0.282021151586369</v>
       </c>
       <c r="C92" t="n">
         <v>0.3117343093882126</v>
@@ -1457,10 +1457,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.1946902654867257</v>
+        <v>0.1938325991189427</v>
       </c>
       <c r="B93" t="n">
-        <v>0.2847058823529412</v>
+        <v>0.2843713278495887</v>
       </c>
       <c r="C93" t="n">
         <v>0.3102979235281058</v>
@@ -1468,10 +1468,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.1946902654867257</v>
+        <v>0.1938325991189427</v>
       </c>
       <c r="B94" t="n">
-        <v>0.288235294117647</v>
+        <v>0.2878965922444183</v>
       </c>
       <c r="C94" t="n">
         <v>0.3100050488892006</v>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.1969026548672566</v>
+        <v>0.1960352422907489</v>
       </c>
       <c r="B95" t="n">
-        <v>0.2894117647058824</v>
+        <v>0.2890716803760282</v>
       </c>
       <c r="C95" t="n">
         <v>0.3099575504702233</v>
@@ -1490,10 +1490,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.1969026548672566</v>
+        <v>0.1960352422907489</v>
       </c>
       <c r="B96" t="n">
-        <v>0.2905882352941176</v>
+        <v>0.2902467685076381</v>
       </c>
       <c r="C96" t="n">
         <v>0.3082337320938037</v>
@@ -1501,10 +1501,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.1991150442477876</v>
+        <v>0.1982378854625551</v>
       </c>
       <c r="B97" t="n">
-        <v>0.2905882352941176</v>
+        <v>0.2902467685076381</v>
       </c>
       <c r="C97" t="n">
         <v>0.3081863838528502</v>
@@ -1512,10 +1512,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.1991150442477876</v>
+        <v>0.1982378854625551</v>
       </c>
       <c r="B98" t="n">
-        <v>0.2917647058823529</v>
+        <v>0.291421856639248</v>
       </c>
       <c r="C98" t="n">
         <v>0.3067590596364895</v>
@@ -1523,10 +1523,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.2013274336283186</v>
+        <v>0.2004405286343612</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2917647058823529</v>
+        <v>0.291421856639248</v>
       </c>
       <c r="C99" t="n">
         <v>0.3046609640015521</v>
@@ -1534,10 +1534,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.2013274336283186</v>
+        <v>0.2004405286343612</v>
       </c>
       <c r="B100" t="n">
-        <v>0.2929411764705883</v>
+        <v>0.2925969447708578</v>
       </c>
       <c r="C100" t="n">
         <v>0.3045190669193835</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.2035398230088496</v>
+        <v>0.2026431718061674</v>
       </c>
       <c r="B101" t="n">
-        <v>0.2929411764705883</v>
+        <v>0.2925969447708578</v>
       </c>
       <c r="C101" t="n">
         <v>0.3027202280437257</v>
@@ -1556,10 +1556,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.2035398230088496</v>
+        <v>0.2026431718061674</v>
       </c>
       <c r="B102" t="n">
-        <v>0.2964705882352941</v>
+        <v>0.2961222091656874</v>
       </c>
       <c r="C102" t="n">
         <v>0.301017344819982</v>
@@ -1567,10 +1567,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.2079646017699115</v>
+        <v>0.2070484581497797</v>
       </c>
       <c r="B103" t="n">
-        <v>0.2988235294117647</v>
+        <v>0.2984723854289072</v>
       </c>
       <c r="C103" t="n">
         <v>0.3009723792028059</v>
@@ -1578,10 +1578,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.2146017699115044</v>
+        <v>0.2136563876651982</v>
       </c>
       <c r="B104" t="n">
-        <v>0.2988235294117647</v>
+        <v>0.2984723854289072</v>
       </c>
       <c r="C104" t="n">
         <v>0.3009607459638846</v>
@@ -1589,10 +1589,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.2146017699115044</v>
+        <v>0.2136563876651982</v>
       </c>
       <c r="B105" t="n">
-        <v>0.3023529411764706</v>
+        <v>0.3019976498237368</v>
       </c>
       <c r="C105" t="n">
         <v>0.2992751081176956</v>
@@ -1600,10 +1600,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.2190265486725664</v>
+        <v>0.2180616740088106</v>
       </c>
       <c r="B106" t="n">
-        <v>0.3105882352941177</v>
+        <v>0.3102232667450059</v>
       </c>
       <c r="C106" t="n">
         <v>0.2992302913409228</v>
@@ -1611,10 +1611,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.2190265486725664</v>
+        <v>0.2180616740088106</v>
       </c>
       <c r="B107" t="n">
-        <v>0.3129411764705882</v>
+        <v>0.3125734430082256</v>
       </c>
       <c r="C107" t="n">
         <v>0.2975386627860502</v>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.2190265486725664</v>
+        <v>0.2180616740088106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.3141176470588236</v>
+        <v>0.3137485311398355</v>
       </c>
       <c r="C108" t="n">
         <v>0.2974939956457263</v>
@@ -1633,10 +1633,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.2212389380530974</v>
+        <v>0.2202643171806167</v>
       </c>
       <c r="B109" t="n">
-        <v>0.3141176470588236</v>
+        <v>0.3137485311398355</v>
       </c>
       <c r="C109" t="n">
         <v>0.2959476046802498</v>
@@ -1644,10 +1644,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.2212389380530974</v>
+        <v>0.2202643171806167</v>
       </c>
       <c r="B110" t="n">
-        <v>0.3176470588235294</v>
+        <v>0.3172737955346651</v>
       </c>
       <c r="C110" t="n">
         <v>0.2957635227007075</v>
@@ -1655,10 +1655,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.2212389380530974</v>
+        <v>0.2202643171806167</v>
       </c>
       <c r="B111" t="n">
-        <v>0.32</v>
+        <v>0.3196239717978848</v>
       </c>
       <c r="C111" t="n">
         <v>0.2940832680269206</v>
@@ -1666,10 +1666,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.2234513274336283</v>
+        <v>0.2224669603524229</v>
       </c>
       <c r="B112" t="n">
-        <v>0.3223529411764706</v>
+        <v>0.3219741480611046</v>
       </c>
       <c r="C112" t="n">
         <v>0.2940389024853736</v>
@@ -1677,10 +1677,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.2256637168141593</v>
+        <v>0.2246696035242291</v>
       </c>
       <c r="B113" t="n">
-        <v>0.3235294117647059</v>
+        <v>0.3231492361927145</v>
       </c>
       <c r="C113" t="n">
         <v>0.2940274245158845</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.2300884955752212</v>
+        <v>0.2290748898678414</v>
       </c>
       <c r="B114" t="n">
-        <v>0.3235294117647059</v>
+        <v>0.3231492361927145</v>
       </c>
       <c r="C114" t="n">
         <v>0.2925029933681099</v>
@@ -1699,10 +1699,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.2300884955752212</v>
+        <v>0.2290748898678414</v>
       </c>
       <c r="B115" t="n">
-        <v>0.3305882352941176</v>
+        <v>0.3301997649823737</v>
       </c>
       <c r="C115" t="n">
         <v>0.2923736166098343</v>
@@ -1710,10 +1710,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.2300884955752212</v>
+        <v>0.2290748898678414</v>
       </c>
       <c r="B116" t="n">
-        <v>0.331764705882353</v>
+        <v>0.3313748531139836</v>
       </c>
       <c r="C116" t="n">
         <v>0.2923201643755394</v>
@@ -1721,10 +1721,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.2300884955752212</v>
+        <v>0.2290748898678414</v>
       </c>
       <c r="B117" t="n">
-        <v>0.348235294117647</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="C117" t="n">
         <v>0.2906606048170357</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.2300884955752212</v>
+        <v>0.2290748898678414</v>
       </c>
       <c r="B118" t="n">
-        <v>0.3494117647058824</v>
+        <v>0.3490011750881316</v>
       </c>
       <c r="C118" t="n">
         <v>0.2906513980890136</v>
@@ -1743,10 +1743,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.2345132743362832</v>
+        <v>0.2334801762114538</v>
       </c>
       <c r="B119" t="n">
-        <v>0.3505882352941176</v>
+        <v>0.3501762632197415</v>
       </c>
       <c r="C119" t="n">
         <v>0.2905959379879635</v>
@@ -1754,10 +1754,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.2367256637168142</v>
+        <v>0.2356828193832599</v>
       </c>
       <c r="B120" t="n">
-        <v>0.3505882352941176</v>
+        <v>0.3501762632197415</v>
       </c>
       <c r="C120" t="n">
         <v>0.2890820128186378</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.2367256637168142</v>
+        <v>0.2356828193832599</v>
       </c>
       <c r="B121" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.3525264394829612</v>
       </c>
       <c r="C121" t="n">
         <v>0.2889535312035779</v>
@@ -1776,10 +1776,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.2367256637168142</v>
+        <v>0.2356828193832599</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3552941176470588</v>
+        <v>0.354876615746181</v>
       </c>
       <c r="C122" t="n">
         <v>0.2872432808668529</v>
@@ -1787,10 +1787,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.2411504424778761</v>
+        <v>0.2400881057268723</v>
       </c>
       <c r="B123" t="n">
-        <v>0.3552941176470588</v>
+        <v>0.354876615746181</v>
       </c>
       <c r="C123" t="n">
         <v>0.2856848864958875</v>
@@ -1798,10 +1798,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.2411504424778761</v>
+        <v>0.2400881057268723</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3564705882352941</v>
+        <v>0.3560517038777908</v>
       </c>
       <c r="C124" t="n">
         <v>0.2855481981063694</v>
@@ -1809,10 +1809,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.2433628318584071</v>
+        <v>0.2422907488986784</v>
       </c>
       <c r="B125" t="n">
-        <v>0.3564705882352941</v>
+        <v>0.3560517038777908</v>
       </c>
       <c r="C125" t="n">
         <v>0.2854933198522006</v>
@@ -1820,10 +1820,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.247787610619469</v>
+        <v>0.2466960352422908</v>
       </c>
       <c r="B126" t="n">
-        <v>0.3576470588235294</v>
+        <v>0.3572267920094007</v>
       </c>
       <c r="C126" t="n">
         <v>0.2838044520332802</v>
@@ -1831,10 +1831,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.247787610619469</v>
+        <v>0.2466960352422908</v>
       </c>
       <c r="B127" t="n">
-        <v>0.3658823529411765</v>
+        <v>0.3654524089306698</v>
       </c>
       <c r="C127" t="n">
         <v>0.2826652036259155</v>
@@ -1842,10 +1842,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.247787610619469</v>
+        <v>0.2466960352422908</v>
       </c>
       <c r="B128" t="n">
-        <v>0.3670588235294118</v>
+        <v>0.3666274970622797</v>
       </c>
       <c r="C128" t="n">
         <v>0.2821216300974657</v>
@@ -1853,10 +1853,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.247787610619469</v>
+        <v>0.2466960352422908</v>
       </c>
       <c r="B129" t="n">
-        <v>0.3788235294117647</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C129" t="n">
         <v>0.2809864866006968</v>
@@ -1864,10 +1864,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.25</v>
+        <v>0.2488986784140969</v>
       </c>
       <c r="B130" t="n">
-        <v>0.3788235294117647</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C130" t="n">
         <v>0.2804448792083044</v>
@@ -1875,10 +1875,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.25</v>
+        <v>0.2488986784140969</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3847058823529412</v>
+        <v>0.3842538190364277</v>
       </c>
       <c r="C131" t="n">
         <v>0.2793138573087244</v>
@@ -1886,10 +1886,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.25</v>
+        <v>0.2488986784140969</v>
       </c>
       <c r="B132" t="n">
-        <v>0.3858823529411765</v>
+        <v>0.3854289071680376</v>
       </c>
       <c r="C132" t="n">
         <v>0.2788283146420688</v>
@@ -1897,10 +1897,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.252212389380531</v>
+        <v>0.2511013215859031</v>
       </c>
       <c r="B133" t="n">
-        <v>0.3858823529411765</v>
+        <v>0.3854289071680376</v>
       </c>
       <c r="C133" t="n">
         <v>0.2787742239319922</v>
@@ -1908,10 +1908,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.252212389380531</v>
+        <v>0.2511013215859031</v>
       </c>
       <c r="B134" t="n">
-        <v>0.3894117647058823</v>
+        <v>0.3889541715628672</v>
       </c>
       <c r="C134" t="n">
         <v>0.2774250331736497</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.252212389380531</v>
+        <v>0.2511013215859031</v>
       </c>
       <c r="B135" t="n">
-        <v>0.391764705882353</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="C135" t="n">
         <v>0.2771096882386416</v>
@@ -1930,10 +1930,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.252212389380531</v>
+        <v>0.2511013215859031</v>
       </c>
       <c r="B136" t="n">
-        <v>0.3941176470588235</v>
+        <v>0.3936545240893067</v>
       </c>
       <c r="C136" t="n">
         <v>0.275504987755596</v>
@@ -1941,10 +1941,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.252212389380531</v>
+        <v>0.2511013215859031</v>
       </c>
       <c r="B137" t="n">
-        <v>0.4</v>
+        <v>0.399529964747356</v>
       </c>
       <c r="C137" t="n">
         <v>0.2741120745917426</v>
@@ -1952,10 +1952,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.252212389380531</v>
+        <v>0.2511013215859031</v>
       </c>
       <c r="B138" t="n">
-        <v>0.4011764705882353</v>
+        <v>0.4007050528789659</v>
       </c>
       <c r="C138" t="n">
         <v>0.273852560428037</v>
@@ -1963,10 +1963,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.252212389380531</v>
+        <v>0.2511013215859031</v>
       </c>
       <c r="B139" t="n">
-        <v>0.4035294117647059</v>
+        <v>0.4030552291421857</v>
       </c>
       <c r="C139" t="n">
         <v>0.2737990685092295</v>
@@ -1974,10 +1974,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.252212389380531</v>
+        <v>0.2511013215859031</v>
       </c>
       <c r="B140" t="n">
-        <v>0.4129411764705883</v>
+        <v>0.4124559341950647</v>
       </c>
       <c r="C140" t="n">
         <v>0.2724648597987853</v>
@@ -1985,10 +1985,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.252212389380531</v>
+        <v>0.2511013215859031</v>
       </c>
       <c r="B141" t="n">
-        <v>0.42</v>
+        <v>0.4195064629847238</v>
       </c>
       <c r="C141" t="n">
         <v>0.2724130992501991</v>
@@ -1996,10 +1996,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.252212389380531</v>
+        <v>0.2511013215859031</v>
       </c>
       <c r="B142" t="n">
-        <v>0.4223529411764706</v>
+        <v>0.4218566392479436</v>
       </c>
       <c r="C142" t="n">
         <v>0.2721530294458757</v>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.254424778761062</v>
+        <v>0.2533039647577093</v>
       </c>
       <c r="B143" t="n">
-        <v>0.4223529411764706</v>
+        <v>0.4218566392479436</v>
       </c>
       <c r="C143" t="n">
         <v>0.2711220163010487</v>
@@ -2018,10 +2018,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.254424778761062</v>
+        <v>0.2533039647577093</v>
       </c>
       <c r="B144" t="n">
-        <v>0.4235294117647059</v>
+        <v>0.4230317273795535</v>
       </c>
       <c r="C144" t="n">
         <v>0.2708238504843993</v>
@@ -2029,10 +2029,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.254424778761062</v>
+        <v>0.2533039647577093</v>
       </c>
       <c r="B145" t="n">
-        <v>0.4294117647058823</v>
+        <v>0.4289071680376028</v>
       </c>
       <c r="C145" t="n">
         <v>0.2707722856562707</v>
@@ -2040,10 +2040,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.254424778761062</v>
+        <v>0.2533039647577093</v>
       </c>
       <c r="B146" t="n">
-        <v>0.4305882352941177</v>
+        <v>0.4300822561692127</v>
       </c>
       <c r="C146" t="n">
         <v>0.2705662890544046</v>
@@ -2051,10 +2051,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.2588495575221239</v>
+        <v>0.2577092511013216</v>
       </c>
       <c r="B147" t="n">
-        <v>0.4305882352941177</v>
+        <v>0.4300822561692127</v>
       </c>
       <c r="C147" t="n">
         <v>0.2694860989345681</v>
@@ -2062,10 +2062,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.2588495575221239</v>
+        <v>0.2577092511013216</v>
       </c>
       <c r="B148" t="n">
-        <v>0.4341176470588236</v>
+        <v>0.4336075205640423</v>
       </c>
       <c r="C148" t="n">
         <v>0.2691890677723904</v>
@@ -2073,10 +2073,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.2588495575221239</v>
+        <v>0.2577092511013216</v>
       </c>
       <c r="B149" t="n">
-        <v>0.44</v>
+        <v>0.4394829612220917</v>
       </c>
       <c r="C149" t="n">
         <v>0.2691376993202476</v>
@@ -2084,10 +2084,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.2654867256637168</v>
+        <v>0.2643171806167401</v>
       </c>
       <c r="B150" t="n">
-        <v>0.44</v>
+        <v>0.4394829612220917</v>
       </c>
       <c r="C150" t="n">
         <v>0.2678564250138367</v>
@@ -2095,10 +2095,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.2654867256637168</v>
+        <v>0.2643171806167401</v>
       </c>
       <c r="B151" t="n">
-        <v>0.4435294117647059</v>
+        <v>0.4430082256169213</v>
       </c>
       <c r="C151" t="n">
         <v>0.2675093607607954</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.2676991150442478</v>
+        <v>0.2665198237885463</v>
       </c>
       <c r="B152" t="n">
-        <v>0.4435294117647059</v>
+        <v>0.4430082256169213</v>
       </c>
       <c r="C152" t="n">
         <v>0.2673558556623665</v>
@@ -2117,10 +2117,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.2765486725663717</v>
+        <v>0.2753303964757709</v>
       </c>
       <c r="B153" t="n">
-        <v>0.4435294117647059</v>
+        <v>0.4430082256169213</v>
       </c>
       <c r="C153" t="n">
         <v>0.266233014597467</v>
@@ -2128,10 +2128,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.2765486725663717</v>
+        <v>0.2753303964757709</v>
       </c>
       <c r="B154" t="n">
-        <v>0.4447058823529412</v>
+        <v>0.4441833137485312</v>
       </c>
       <c r="C154" t="n">
         <v>0.2658872899118815</v>
@@ -2139,10 +2139,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.2787610619469026</v>
+        <v>0.2775330396475771</v>
       </c>
       <c r="B155" t="n">
-        <v>0.4447058823529412</v>
+        <v>0.4441833137485312</v>
       </c>
       <c r="C155" t="n">
         <v>0.265734377932285</v>
@@ -2150,10 +2150,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.2920353982300885</v>
+        <v>0.2907488986784141</v>
       </c>
       <c r="B156" t="n">
-        <v>0.4447058823529412</v>
+        <v>0.4441833137485312</v>
       </c>
       <c r="C156" t="n">
         <v>0.2646158871609687</v>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.2964601769911505</v>
+        <v>0.2951541850220264</v>
       </c>
       <c r="B157" t="n">
-        <v>0.4447058823529412</v>
+        <v>0.4441833137485312</v>
       </c>
       <c r="C157" t="n">
         <v>0.2641191890621215</v>
@@ -2172,10 +2172,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.2986725663716814</v>
+        <v>0.2973568281938326</v>
       </c>
       <c r="B158" t="n">
-        <v>0.4470588235294118</v>
+        <v>0.4465334900117509</v>
       </c>
       <c r="C158" t="n">
         <v>0.2630050615988637</v>
@@ -2183,10 +2183,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.2986725663716814</v>
+        <v>0.2973568281938326</v>
       </c>
       <c r="B159" t="n">
-        <v>0.4482352941176471</v>
+        <v>0.4477085781433607</v>
       </c>
       <c r="C159" t="n">
         <v>0.2626620281703848</v>
@@ -2194,10 +2194,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.3141592920353982</v>
+        <v>0.3127753303964758</v>
       </c>
       <c r="B160" t="n">
-        <v>0.4482352941176471</v>
+        <v>0.4477085781433607</v>
       </c>
       <c r="C160" t="n">
         <v>0.2625103077679304</v>
@@ -2205,10 +2205,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.3230088495575221</v>
+        <v>0.3215859030837004</v>
       </c>
       <c r="B161" t="n">
-        <v>0.4482352941176471</v>
+        <v>0.4477085781433607</v>
       </c>
       <c r="C161" t="n">
         <v>0.2609077521876676</v>
@@ -2216,10 +2216,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.3252212389380531</v>
+        <v>0.3237885462555066</v>
       </c>
       <c r="B162" t="n">
-        <v>0.4505882352941176</v>
+        <v>0.4500587544065805</v>
       </c>
       <c r="C162" t="n">
         <v>0.2598023887842434</v>
@@ -2227,10 +2227,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.334070796460177</v>
+        <v>0.3325991189427313</v>
       </c>
       <c r="B163" t="n">
-        <v>0.4505882352941176</v>
+        <v>0.4500587544065805</v>
       </c>
       <c r="C163" t="n">
         <v>0.2577216878442479</v>
@@ -2238,10 +2238,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.3407079646017699</v>
+        <v>0.3392070484581498</v>
       </c>
       <c r="B164" t="n">
-        <v>0.46</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C164" t="n">
         <v>0.2567805516041451</v>
@@ -2249,10 +2249,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.3451327433628318</v>
+        <v>0.3436123348017621</v>
       </c>
       <c r="B165" t="n">
-        <v>0.4611764705882353</v>
+        <v>0.4606345475910693</v>
       </c>
       <c r="C165" t="n">
         <v>0.2567338084755352</v>
@@ -2260,10 +2260,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.3451327433628318</v>
+        <v>0.3436123348017621</v>
       </c>
       <c r="B166" t="n">
-        <v>0.4623529411764706</v>
+        <v>0.4618096357226792</v>
       </c>
       <c r="C166" t="n">
         <v>0.2566251357757249</v>
@@ -2271,10 +2271,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.3473451327433628</v>
+        <v>0.3458149779735683</v>
       </c>
       <c r="B167" t="n">
-        <v>0.4623529411764706</v>
+        <v>0.4618096357226792</v>
       </c>
       <c r="C167" t="n">
         <v>0.2561382124877826</v>
@@ -2282,10 +2282,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.3584070796460177</v>
+        <v>0.3568281938325991</v>
       </c>
       <c r="B168" t="n">
-        <v>0.4682352941176471</v>
+        <v>0.4676850763807285</v>
       </c>
       <c r="C168" t="n">
         <v>0.2552008706561714</v>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.3628318584070797</v>
+        <v>0.3612334801762114</v>
       </c>
       <c r="B169" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.4700352526439483</v>
       </c>
       <c r="C169" t="n">
         <v>0.2551543163639761</v>
@@ -2304,10 +2304,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.3650442477876106</v>
+        <v>0.3634361233480176</v>
       </c>
       <c r="B170" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.4700352526439483</v>
       </c>
       <c r="C170" t="n">
         <v>0.2545611296636825</v>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.3650442477876106</v>
+        <v>0.3634361233480176</v>
       </c>
       <c r="B171" t="n">
-        <v>0.4729411764705883</v>
+        <v>0.4723854289071681</v>
       </c>
       <c r="C171" t="n">
         <v>0.2539234035467514</v>
@@ -2326,10 +2326,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.3672566371681416</v>
+        <v>0.3656387665198238</v>
       </c>
       <c r="B172" t="n">
-        <v>0.4729411764705883</v>
+        <v>0.4723854289071681</v>
       </c>
       <c r="C172" t="n">
         <v>0.2536275913851326</v>
@@ -2337,10 +2337,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.3761061946902655</v>
+        <v>0.3744493392070485</v>
       </c>
       <c r="B173" t="n">
-        <v>0.4776470588235294</v>
+        <v>0.4770857814336075</v>
       </c>
       <c r="C173" t="n">
         <v>0.253581226378907</v>
@@ -2348,10 +2348,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.3761061946902655</v>
+        <v>0.3744493392070485</v>
       </c>
       <c r="B174" t="n">
-        <v>0.4788235294117647</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C174" t="n">
         <v>0.2530679355702505</v>
@@ -2359,10 +2359,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.3805309734513274</v>
+        <v>0.3788546255506608</v>
       </c>
       <c r="B175" t="n">
-        <v>0.48</v>
+        <v>0.4794359576968273</v>
       </c>
       <c r="C175" t="n">
         <v>0.2520145534529519</v>
@@ -2370,10 +2370,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.3827433628318584</v>
+        <v>0.381057268722467</v>
       </c>
       <c r="B176" t="n">
-        <v>0.48</v>
+        <v>0.4794359576968273</v>
       </c>
       <c r="C176" t="n">
         <v>0.251426202185188</v>
@@ -2381,10 +2381,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.3827433628318584</v>
+        <v>0.381057268722467</v>
       </c>
       <c r="B177" t="n">
-        <v>0.4811764705882353</v>
+        <v>0.4806110458284371</v>
       </c>
       <c r="C177" t="n">
         <v>0.2513772760247739</v>
@@ -2392,10 +2392,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.3849557522123894</v>
+        <v>0.3832599118942731</v>
       </c>
       <c r="B178" t="n">
-        <v>0.4811764705882353</v>
+        <v>0.4806110458284371</v>
       </c>
       <c r="C178" t="n">
         <v>0.2507936874316886</v>
@@ -2403,10 +2403,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.3849557522123894</v>
+        <v>0.3832599118942731</v>
       </c>
       <c r="B179" t="n">
-        <v>0.4823529411764706</v>
+        <v>0.481786133960047</v>
       </c>
       <c r="C179" t="n">
         <v>0.2504543119575286</v>
@@ -2414,10 +2414,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.3849557522123894</v>
+        <v>0.3832599118942731</v>
       </c>
       <c r="B180" t="n">
-        <v>0.4847058823529412</v>
+        <v>0.4841363102232668</v>
       </c>
       <c r="C180" t="n">
         <v>0.2495780568377396</v>
@@ -2425,10 +2425,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.3915929203539823</v>
+        <v>0.3898678414096916</v>
       </c>
       <c r="B181" t="n">
-        <v>0.4858823529411765</v>
+        <v>0.4853113983548766</v>
       </c>
       <c r="C181" t="n">
         <v>0.249238485829352</v>
@@ -2436,10 +2436,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.3960176991150443</v>
+        <v>0.394273127753304</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4858823529411765</v>
+        <v>0.4853113983548766</v>
       </c>
       <c r="C182" t="n">
         <v>0.2483170209414104</v>
@@ -2447,10 +2447,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.3960176991150443</v>
+        <v>0.394273127753304</v>
       </c>
       <c r="B183" t="n">
-        <v>0.4905882352941177</v>
+        <v>0.4900117508813161</v>
       </c>
       <c r="C183" t="n">
         <v>0.2480278979297566</v>
@@ -2458,10 +2458,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.4004424778761062</v>
+        <v>0.3986784140969163</v>
       </c>
       <c r="B184" t="n">
-        <v>0.4917647058823529</v>
+        <v>0.491186839012926</v>
       </c>
       <c r="C184" t="n">
         <v>0.2476897398870262</v>
@@ -2469,10 +2469,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.4004424778761062</v>
+        <v>0.3986784140969163</v>
       </c>
       <c r="B185" t="n">
-        <v>0.4929411764705882</v>
+        <v>0.4923619271445359</v>
       </c>
       <c r="C185" t="n">
         <v>0.2473531779551031</v>
@@ -2480,10 +2480,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.4004424778761062</v>
+        <v>0.3986784140969163</v>
       </c>
       <c r="B186" t="n">
-        <v>0.5023529411764706</v>
+        <v>0.5017626321974148</v>
       </c>
       <c r="C186" t="n">
         <v>0.2464842047493059</v>
@@ -2491,10 +2491,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.4004424778761062</v>
+        <v>0.3986784140969163</v>
       </c>
       <c r="B187" t="n">
-        <v>0.5070588235294118</v>
+        <v>0.5064629847238543</v>
       </c>
       <c r="C187" t="n">
         <v>0.2449469896917084</v>
@@ -2502,10 +2502,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.4004424778761062</v>
+        <v>0.3986784140969163</v>
       </c>
       <c r="B188" t="n">
-        <v>0.508235294117647</v>
+        <v>0.5076380728554641</v>
       </c>
       <c r="C188" t="n">
         <v>0.2446116657336519</v>
@@ -2513,10 +2513,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.4004424778761062</v>
+        <v>0.3986784140969163</v>
       </c>
       <c r="B189" t="n">
-        <v>0.5141176470588236</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C189" t="n">
         <v>0.2434162646047095</v>
@@ -2524,10 +2524,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.4004424778761062</v>
+        <v>0.3986784140969163</v>
       </c>
       <c r="B190" t="n">
-        <v>0.5152941176470588</v>
+        <v>0.5146886016451234</v>
       </c>
       <c r="C190" t="n">
         <v>0.2418920407916633</v>
@@ -2535,10 +2535,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.4004424778761062</v>
+        <v>0.3986784140969163</v>
       </c>
       <c r="B191" t="n">
-        <v>0.5258823529411765</v>
+        <v>0.5252643948296122</v>
       </c>
       <c r="C191" t="n">
         <v>0.24185950651514</v>
@@ -2546,10 +2546,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.4004424778761062</v>
+        <v>0.3986784140969163</v>
       </c>
       <c r="B192" t="n">
-        <v>0.528235294117647</v>
+        <v>0.5276145710928319</v>
       </c>
       <c r="C192" t="n">
         <v>0.2415595609927391</v>
@@ -2557,10 +2557,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.4004424778761062</v>
+        <v>0.3986784140969163</v>
       </c>
       <c r="B193" t="n">
-        <v>0.5329411764705883</v>
+        <v>0.5323149236192715</v>
       </c>
       <c r="C193" t="n">
         <v>0.2403419341538665</v>
@@ -2568,10 +2568,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.4004424778761062</v>
+        <v>0.3986784140969163</v>
       </c>
       <c r="B194" t="n">
-        <v>0.5352941176470588</v>
+        <v>0.5346650998824912</v>
       </c>
       <c r="C194" t="n">
         <v>0.2392195752906444</v>
@@ -2579,10 +2579,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.4004424778761062</v>
+        <v>0.3986784140969163</v>
       </c>
       <c r="B195" t="n">
-        <v>0.5423529411764706</v>
+        <v>0.5417156286721504</v>
       </c>
       <c r="C195" t="n">
         <v>0.2388308842660364</v>
@@ -2590,10 +2590,10 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.4004424778761062</v>
+        <v>0.3986784140969163</v>
       </c>
       <c r="B196" t="n">
-        <v>0.548235294117647</v>
+        <v>0.5475910693301997</v>
       </c>
       <c r="C196" t="n">
         <v>0.2355336004466526</v>
@@ -2601,10 +2601,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.4026548672566372</v>
+        <v>0.4008810572687225</v>
       </c>
       <c r="B197" t="n">
-        <v>0.5494117647058824</v>
+        <v>0.5487661574618097</v>
       </c>
       <c r="C197" t="n">
         <v>0.2353963843775516</v>
@@ -2612,10 +2612,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.4026548672566372</v>
+        <v>0.4008810572687225</v>
       </c>
       <c r="B198" t="n">
-        <v>0.5517647058823529</v>
+        <v>0.5511163337250293</v>
       </c>
       <c r="C198" t="n">
         <v>0.234043467256414</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.4026548672566372</v>
+        <v>0.4008810572687225</v>
       </c>
       <c r="B199" t="n">
-        <v>0.5541176470588235</v>
+        <v>0.5534665099882491</v>
       </c>
       <c r="C199" t="n">
         <v>0.2332340373019288</v>
@@ -2634,10 +2634,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.4026548672566372</v>
+        <v>0.4008810572687225</v>
       </c>
       <c r="B200" t="n">
-        <v>0.5576470588235294</v>
+        <v>0.5569917743830788</v>
       </c>
       <c r="C200" t="n">
         <v>0.2325598936185763</v>
@@ -2645,10 +2645,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.4048672566371682</v>
+        <v>0.4030837004405287</v>
       </c>
       <c r="B201" t="n">
-        <v>0.5576470588235294</v>
+        <v>0.5569917743830788</v>
       </c>
       <c r="C201" t="n">
         <v>0.2324238832465021</v>
@@ -2656,10 +2656,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.4048672566371682</v>
+        <v>0.4030837004405287</v>
       </c>
       <c r="B202" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5593419506462984</v>
       </c>
       <c r="C202" t="n">
         <v>0.230187386457256</v>
@@ -2667,10 +2667,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.4048672566371682</v>
+        <v>0.4030837004405287</v>
       </c>
       <c r="B203" t="n">
-        <v>0.5623529411764706</v>
+        <v>0.5616921269095182</v>
       </c>
       <c r="C203" t="n">
         <v>0.2296124543806294</v>
@@ -2678,10 +2678,10 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.4070796460176991</v>
+        <v>0.4052863436123348</v>
       </c>
       <c r="B204" t="n">
-        <v>0.5635294117647058</v>
+        <v>0.5628672150411281</v>
       </c>
       <c r="C204" t="n">
         <v>0.2294776523496447</v>
@@ -2689,10 +2689,10 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.4070796460176991</v>
+        <v>0.4052863436123348</v>
       </c>
       <c r="B205" t="n">
-        <v>0.5658823529411765</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C205" t="n">
         <v>0.2287209571032839</v>
@@ -2700,10 +2700,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.4092920353982301</v>
+        <v>0.407488986784141</v>
       </c>
       <c r="B206" t="n">
-        <v>0.5658823529411765</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C206" t="n">
         <v>0.227447163941763</v>
@@ -2711,10 +2711,10 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.4092920353982301</v>
+        <v>0.407488986784141</v>
       </c>
       <c r="B207" t="n">
-        <v>0.5705882352941176</v>
+        <v>0.5699177438307873</v>
       </c>
       <c r="C207" t="n">
         <v>0.2265577449366146</v>
@@ -2722,10 +2722,10 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.4092920353982301</v>
+        <v>0.407488986784141</v>
       </c>
       <c r="B208" t="n">
-        <v>0.5729411764705883</v>
+        <v>0.5722679200940071</v>
       </c>
       <c r="C208" t="n">
         <v>0.2258998343781842</v>
@@ -2733,10 +2733,10 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.418141592920354</v>
+        <v>0.4162995594713657</v>
       </c>
       <c r="B209" t="n">
-        <v>0.5776470588235294</v>
+        <v>0.5769682726204466</v>
       </c>
       <c r="C209" t="n">
         <v>0.2246767381816847</v>
@@ -2744,10 +2744,10 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.418141592920354</v>
+        <v>0.4162995594713657</v>
       </c>
       <c r="B210" t="n">
-        <v>0.5788235294117647</v>
+        <v>0.5781433607520564</v>
       </c>
       <c r="C210" t="n">
         <v>0.2243611956893695</v>
@@ -2755,10 +2755,10 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.4203539823008849</v>
+        <v>0.4185022026431718</v>
       </c>
       <c r="B211" t="n">
-        <v>0.58</v>
+        <v>0.5793184488836662</v>
       </c>
       <c r="C211" t="n">
         <v>0.2236642061317159</v>
@@ -2766,10 +2766,10 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.4380530973451328</v>
+        <v>0.4361233480176211</v>
       </c>
       <c r="B212" t="n">
-        <v>0.5811764705882353</v>
+        <v>0.5804935370152762</v>
       </c>
       <c r="C212" t="n">
         <v>0.2232352346185763</v>
@@ -2777,10 +2777,10 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.4402654867256637</v>
+        <v>0.4383259911894273</v>
       </c>
       <c r="B213" t="n">
-        <v>0.5811764705882353</v>
+        <v>0.5804935370152762</v>
       </c>
       <c r="C213" t="n">
         <v>0.2223742198083525</v>
@@ -2788,10 +2788,10 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.4469026548672566</v>
+        <v>0.4449339207048458</v>
       </c>
       <c r="B214" t="n">
-        <v>0.5823529411764706</v>
+        <v>0.581668625146886</v>
       </c>
       <c r="C214" t="n">
         <v>0.2218003338248831</v>
@@ -2799,10 +2799,10 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.4491150442477876</v>
+        <v>0.447136563876652</v>
       </c>
       <c r="B215" t="n">
-        <v>0.5823529411764706</v>
+        <v>0.581668625146886</v>
       </c>
       <c r="C215" t="n">
         <v>0.2216703584252344</v>
@@ -2810,10 +2810,10 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.4491150442477876</v>
+        <v>0.447136563876652</v>
       </c>
       <c r="B216" t="n">
-        <v>0.5835294117647059</v>
+        <v>0.5828437132784959</v>
       </c>
       <c r="C216" t="n">
         <v>0.2214876770095908</v>
@@ -2821,10 +2821,10 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.4491150442477876</v>
+        <v>0.447136563876652</v>
       </c>
       <c r="B217" t="n">
-        <v>0.5858823529411765</v>
+        <v>0.5851938895417156</v>
       </c>
       <c r="C217" t="n">
         <v>0.2207970730582579</v>
@@ -2832,10 +2832,10 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.4491150442477876</v>
+        <v>0.447136563876652</v>
       </c>
       <c r="B218" t="n">
-        <v>0.5870588235294117</v>
+        <v>0.5863689776733255</v>
       </c>
       <c r="C218" t="n">
         <v>0.220151129543926</v>
@@ -2843,10 +2843,10 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.4491150442477876</v>
+        <v>0.447136563876652</v>
       </c>
       <c r="B219" t="n">
-        <v>0.5894117647058823</v>
+        <v>0.5887191539365453</v>
       </c>
       <c r="C219" t="n">
         <v>0.2191213632779008</v>
@@ -2854,10 +2854,10 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.4491150442477876</v>
+        <v>0.447136563876652</v>
       </c>
       <c r="B220" t="n">
-        <v>0.5952941176470589</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C220" t="n">
         <v>0.2162962397677982</v>
@@ -2865,10 +2865,10 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.4513274336283186</v>
+        <v>0.4493392070484581</v>
       </c>
       <c r="B221" t="n">
-        <v>0.5952941176470589</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C221" t="n">
         <v>0.2159992526099209</v>
@@ -2876,10 +2876,10 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.4513274336283186</v>
+        <v>0.4493392070484581</v>
       </c>
       <c r="B222" t="n">
-        <v>0.5976470588235294</v>
+        <v>0.5969447708578144</v>
       </c>
       <c r="C222" t="n">
         <v>0.214043223594733</v>
@@ -2887,10 +2887,10 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.4513274336283186</v>
+        <v>0.4493392070484581</v>
       </c>
       <c r="B223" t="n">
-        <v>0.6023529411764705</v>
+        <v>0.6016451233842538</v>
       </c>
       <c r="C223" t="n">
         <v>0.2130006544590214</v>
@@ -2898,10 +2898,10 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.4557522123893805</v>
+        <v>0.4537444933920705</v>
       </c>
       <c r="B224" t="n">
-        <v>0.6023529411764705</v>
+        <v>0.6016451233842538</v>
       </c>
       <c r="C224" t="n">
         <v>0.2123543621402669</v>
@@ -2909,10 +2909,10 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.4557522123893805</v>
+        <v>0.4537444933920705</v>
       </c>
       <c r="B225" t="n">
-        <v>0.6047058823529412</v>
+        <v>0.6039952996474736</v>
       </c>
       <c r="C225" t="n">
         <v>0.2116386216222204</v>
@@ -2920,10 +2920,10 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.4557522123893805</v>
+        <v>0.4537444933920705</v>
       </c>
       <c r="B226" t="n">
-        <v>0.6129411764705882</v>
+        <v>0.6122209165687427</v>
       </c>
       <c r="C226" t="n">
         <v>0.2116136171442096</v>
@@ -2931,10 +2931,10 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.4557522123893805</v>
+        <v>0.4537444933920705</v>
       </c>
       <c r="B227" t="n">
-        <v>0.6152941176470588</v>
+        <v>0.6145710928319624</v>
       </c>
       <c r="C227" t="n">
         <v>0.2104340070257527</v>
@@ -2942,10 +2942,10 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.4557522123893805</v>
+        <v>0.4537444933920705</v>
       </c>
       <c r="B228" t="n">
-        <v>0.6188235294117647</v>
+        <v>0.618096357226792</v>
       </c>
       <c r="C228" t="n">
         <v>0.2102331992616534</v>
@@ -2953,10 +2953,10 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.4557522123893805</v>
+        <v>0.4537444933920705</v>
       </c>
       <c r="B229" t="n">
-        <v>0.62</v>
+        <v>0.6192714453584018</v>
       </c>
       <c r="C229" t="n">
         <v>0.2097338517955792</v>
@@ -2964,10 +2964,10 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.4579646017699115</v>
+        <v>0.4559471365638766</v>
       </c>
       <c r="B230" t="n">
-        <v>0.62</v>
+        <v>0.6192714453584018</v>
       </c>
       <c r="C230" t="n">
         <v>0.2095930677241039</v>
@@ -2975,10 +2975,10 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.4579646017699115</v>
+        <v>0.4559471365638766</v>
       </c>
       <c r="B231" t="n">
-        <v>0.6211764705882353</v>
+        <v>0.6204465334900118</v>
       </c>
       <c r="C231" t="n">
         <v>0.208884165942577</v>
@@ -2986,10 +2986,10 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.4579646017699115</v>
+        <v>0.4559471365638766</v>
       </c>
       <c r="B232" t="n">
-        <v>0.6247058823529412</v>
+        <v>0.6239717978848414</v>
       </c>
       <c r="C232" t="n">
         <v>0.2088594006794733</v>
@@ -2997,10 +2997,10 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.4601769911504425</v>
+        <v>0.4581497797356828</v>
       </c>
       <c r="B233" t="n">
-        <v>0.6247058823529412</v>
+        <v>0.6239717978848414</v>
       </c>
       <c r="C233" t="n">
         <v>0.2079796932485781</v>
@@ -3008,10 +3008,10 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.4623893805309734</v>
+        <v>0.460352422907489</v>
       </c>
       <c r="B234" t="n">
-        <v>0.6270588235294118</v>
+        <v>0.6263219741480611</v>
       </c>
       <c r="C234" t="n">
         <v>0.2076910989863041</v>
@@ -3019,10 +3019,10 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.4623893805309734</v>
+        <v>0.460352422907489</v>
       </c>
       <c r="B235" t="n">
-        <v>0.6341176470588236</v>
+        <v>0.6333725029377203</v>
       </c>
       <c r="C235" t="n">
         <v>0.2072383949965256</v>
@@ -3030,10 +3030,10 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.4623893805309734</v>
+        <v>0.460352422907489</v>
       </c>
       <c r="B236" t="n">
-        <v>0.6388235294117647</v>
+        <v>0.6380728554641598</v>
       </c>
       <c r="C236" t="n">
         <v>0.2061316586336231</v>
@@ -3041,10 +3041,10 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.4623893805309734</v>
+        <v>0.460352422907489</v>
       </c>
       <c r="B237" t="n">
-        <v>0.6423529411764706</v>
+        <v>0.6415981198589894</v>
       </c>
       <c r="C237" t="n">
         <v>0.2058790648203565</v>
@@ -3052,10 +3052,10 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.4623893805309734</v>
+        <v>0.460352422907489</v>
       </c>
       <c r="B238" t="n">
-        <v>0.6435294117647059</v>
+        <v>0.6427732079905993</v>
       </c>
       <c r="C238" t="n">
         <v>0.2056395165524939</v>
@@ -3063,10 +3063,10 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.4623893805309734</v>
+        <v>0.460352422907489</v>
       </c>
       <c r="B239" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.6462984723854289</v>
       </c>
       <c r="C239" t="n">
         <v>0.205281444897724</v>
@@ -3074,10 +3074,10 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.4646017699115044</v>
+        <v>0.4625550660792951</v>
       </c>
       <c r="B240" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.6462984723854289</v>
       </c>
       <c r="C240" t="n">
         <v>0.2052604594996135</v>
@@ -3085,10 +3085,10 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.4646017699115044</v>
+        <v>0.4625550660792951</v>
       </c>
       <c r="B241" t="n">
-        <v>0.648235294117647</v>
+        <v>0.6474735605170387</v>
       </c>
       <c r="C241" t="n">
         <v>0.2050492107278926</v>
@@ -3096,10 +3096,10 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.4646017699115044</v>
+        <v>0.4625550660792951</v>
       </c>
       <c r="B242" t="n">
-        <v>0.6576470588235294</v>
+        <v>0.6568742655699178</v>
       </c>
       <c r="C242" t="n">
         <v>0.2039316488670984</v>
@@ -3107,10 +3107,10 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.4668141592920354</v>
+        <v>0.4647577092511013</v>
       </c>
       <c r="B243" t="n">
-        <v>0.6576470588235294</v>
+        <v>0.6568742655699178</v>
       </c>
       <c r="C243" t="n">
         <v>0.2039107660503639</v>
@@ -3118,10 +3118,10 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.4668141592920354</v>
+        <v>0.4647577092511013</v>
       </c>
       <c r="B244" t="n">
-        <v>0.6588235294117647</v>
+        <v>0.6580493537015276</v>
       </c>
       <c r="C244" t="n">
         <v>0.2037005503143819</v>
@@ -3129,10 +3129,10 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.4668141592920354</v>
+        <v>0.4647577092511013</v>
       </c>
       <c r="B245" t="n">
-        <v>0.6635294117647059</v>
+        <v>0.6627497062279671</v>
       </c>
       <c r="C245" t="n">
         <v>0.2036957991586747</v>
@@ -3140,10 +3140,10 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.4690265486725664</v>
+        <v>0.4669603524229075</v>
       </c>
       <c r="B246" t="n">
-        <v>0.6635294117647059</v>
+        <v>0.6627497062279671</v>
       </c>
       <c r="C246" t="n">
         <v>0.2036263662721985</v>
@@ -3151,10 +3151,10 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.4690265486725664</v>
+        <v>0.4669603524229075</v>
       </c>
       <c r="B247" t="n">
-        <v>0.6647058823529411</v>
+        <v>0.663924794359577</v>
       </c>
       <c r="C247" t="n">
         <v>0.2031802501375413</v>
@@ -3162,10 +3162,10 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.4690265486725664</v>
+        <v>0.4669603524229075</v>
       </c>
       <c r="B248" t="n">
-        <v>0.6670588235294118</v>
+        <v>0.6662749706227967</v>
       </c>
       <c r="C248" t="n">
         <v>0.2030926064984833</v>
@@ -3173,10 +3173,10 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.4690265486725664</v>
+        <v>0.4669603524229075</v>
       </c>
       <c r="B249" t="n">
-        <v>0.6741176470588235</v>
+        <v>0.6733254994124559</v>
       </c>
       <c r="C249" t="n">
         <v>0.2025884657124078</v>
@@ -3184,10 +3184,10 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.4712389380530974</v>
+        <v>0.4691629955947136</v>
       </c>
       <c r="B250" t="n">
-        <v>0.6741176470588235</v>
+        <v>0.6733254994124559</v>
       </c>
       <c r="C250" t="n">
         <v>0.202284682907808</v>
@@ -3195,10 +3195,10 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.4712389380530974</v>
+        <v>0.4691629955947136</v>
       </c>
       <c r="B251" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C251" t="n">
         <v>0.2018407612093245</v>
@@ -3206,10 +3206,10 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.4712389380530974</v>
+        <v>0.4691629955947136</v>
       </c>
       <c r="B252" t="n">
-        <v>0.68</v>
+        <v>0.6792009400705052</v>
       </c>
       <c r="C252" t="n">
         <v>0.2017535490726832</v>
@@ -3217,10 +3217,10 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.4734513274336283</v>
+        <v>0.4713656387665198</v>
       </c>
       <c r="B253" t="n">
-        <v>0.6811764705882353</v>
+        <v>0.6803760282021152</v>
       </c>
       <c r="C253" t="n">
         <v>0.201251892816485</v>
@@ -3228,10 +3228,10 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.4734513274336283</v>
+        <v>0.4713656387665198</v>
       </c>
       <c r="B254" t="n">
-        <v>0.6835294117647058</v>
+        <v>0.6827262044653349</v>
       </c>
       <c r="C254" t="n">
         <v>0.2010230641679069</v>
@@ -3239,10 +3239,10 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.4734513274336283</v>
+        <v>0.4713656387665198</v>
       </c>
       <c r="B255" t="n">
-        <v>0.6847058823529412</v>
+        <v>0.6839012925969448</v>
       </c>
       <c r="C255" t="n">
         <v>0.2010183596974797</v>
@@ -3250,10 +3250,10 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.4734513274336283</v>
+        <v>0.4713656387665198</v>
       </c>
       <c r="B256" t="n">
-        <v>0.6882352941176471</v>
+        <v>0.6874265569917744</v>
       </c>
       <c r="C256" t="n">
         <v>0.2004211000557235</v>
@@ -3261,10 +3261,10 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.4734513274336283</v>
+        <v>0.4713656387665198</v>
       </c>
       <c r="B257" t="n">
-        <v>0.6905882352941176</v>
+        <v>0.6897767332549941</v>
       </c>
       <c r="C257" t="n">
         <v>0.2002730060934937</v>
@@ -3272,10 +3272,10 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.4734513274336283</v>
+        <v>0.4713656387665198</v>
       </c>
       <c r="B258" t="n">
-        <v>0.6917647058823529</v>
+        <v>0.690951821386604</v>
       </c>
       <c r="C258" t="n">
         <v>0.2001369643180549</v>
@@ -3283,10 +3283,10 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.4823008849557522</v>
+        <v>0.4801762114537445</v>
       </c>
       <c r="B259" t="n">
-        <v>0.6917647058823529</v>
+        <v>0.690951821386604</v>
       </c>
       <c r="C259" t="n">
         <v>0.1999219271353735</v>
@@ -3294,10 +3294,10 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.4823008849557522</v>
+        <v>0.4801762114537445</v>
       </c>
       <c r="B260" t="n">
-        <v>0.7</v>
+        <v>0.699177438307873</v>
       </c>
       <c r="C260" t="n">
         <v>0.1996895514827169</v>
@@ -3305,10 +3305,10 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.4823008849557522</v>
+        <v>0.4801762114537445</v>
       </c>
       <c r="B261" t="n">
-        <v>0.7035294117647058</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C261" t="n">
         <v>0.1989478981009653</v>
@@ -3316,10 +3316,10 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.4823008849557522</v>
+        <v>0.4801762114537445</v>
       </c>
       <c r="B262" t="n">
-        <v>0.7070588235294117</v>
+        <v>0.7062279670975323</v>
       </c>
       <c r="C262" t="n">
         <v>0.19859856520287</v>
@@ -3327,10 +3327,10 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.4867256637168141</v>
+        <v>0.4845814977973568</v>
       </c>
       <c r="B263" t="n">
-        <v>0.7070588235294117</v>
+        <v>0.7062279670975323</v>
       </c>
       <c r="C263" t="n">
         <v>0.1985780922723521</v>
@@ -3338,10 +3338,10 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.4867256637168141</v>
+        <v>0.4845814977973568</v>
       </c>
       <c r="B264" t="n">
-        <v>0.7129411764705882</v>
+        <v>0.7121034077555817</v>
       </c>
       <c r="C264" t="n">
         <v>0.1983720041981833</v>
@@ -3349,10 +3349,10 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.4867256637168141</v>
+        <v>0.4845814977973568</v>
       </c>
       <c r="B265" t="n">
-        <v>0.7141176470588235</v>
+        <v>0.7132784958871915</v>
       </c>
       <c r="C265" t="n">
         <v>0.198236524187935</v>
@@ -3360,10 +3360,10 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.4867256637168141</v>
+        <v>0.4845814977973568</v>
       </c>
       <c r="B266" t="n">
-        <v>0.7188235294117648</v>
+        <v>0.717978848413631</v>
       </c>
       <c r="C266" t="n">
         <v>0.1976293910406533</v>
@@ -3371,10 +3371,10 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.4867256637168141</v>
+        <v>0.4845814977973568</v>
       </c>
       <c r="B267" t="n">
-        <v>0.7258823529411764</v>
+        <v>0.7250293772032902</v>
       </c>
       <c r="C267" t="n">
         <v>0.1964633682853505</v>
@@ -3382,10 +3382,10 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.4867256637168141</v>
+        <v>0.4845814977973568</v>
       </c>
       <c r="B268" t="n">
-        <v>0.7329411764705882</v>
+        <v>0.7320799059929495</v>
       </c>
       <c r="C268" t="n">
         <v>0.1950121625542105</v>
@@ -3393,10 +3393,10 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.4867256637168141</v>
+        <v>0.4845814977973568</v>
       </c>
       <c r="B269" t="n">
-        <v>0.7376470588235294</v>
+        <v>0.736780258519389</v>
       </c>
       <c r="C269" t="n">
         <v>0.1944403079814133</v>
@@ -3404,10 +3404,10 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.4889380530973451</v>
+        <v>0.486784140969163</v>
       </c>
       <c r="B270" t="n">
-        <v>0.7376470588235294</v>
+        <v>0.736780258519389</v>
       </c>
       <c r="C270" t="n">
         <v>0.194373259885694</v>
@@ -3415,10 +3415,10 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.4889380530973451</v>
+        <v>0.486784140969163</v>
       </c>
       <c r="B271" t="n">
-        <v>0.7388235294117647</v>
+        <v>0.7379553466509988</v>
       </c>
       <c r="C271" t="n">
         <v>0.1939424790421621</v>
@@ -3426,10 +3426,10 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.4889380530973451</v>
+        <v>0.486784140969163</v>
       </c>
       <c r="B272" t="n">
-        <v>0.7423529411764705</v>
+        <v>0.7414806110458284</v>
       </c>
       <c r="C272" t="n">
         <v>0.193713431527158</v>
@@ -3437,10 +3437,10 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.4889380530973451</v>
+        <v>0.486784140969163</v>
       </c>
       <c r="B273" t="n">
-        <v>0.7458823529411764</v>
+        <v>0.745005875440658</v>
       </c>
       <c r="C273" t="n">
         <v>0.1931444715909852</v>
@@ -3448,10 +3448,10 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.4933628318584071</v>
+        <v>0.4911894273127753</v>
       </c>
       <c r="B274" t="n">
-        <v>0.7458823529411764</v>
+        <v>0.745005875440658</v>
       </c>
       <c r="C274" t="n">
         <v>0.1930777632346317</v>
@@ -3459,10 +3459,10 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.4933628318584071</v>
+        <v>0.4911894273127753</v>
       </c>
       <c r="B275" t="n">
-        <v>0.7470588235294118</v>
+        <v>0.7461809635722679</v>
       </c>
       <c r="C275" t="n">
         <v>0.1930162645173993</v>
@@ -3470,10 +3470,10 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.4933628318584071</v>
+        <v>0.4911894273127753</v>
       </c>
       <c r="B276" t="n">
-        <v>0.7541176470588236</v>
+        <v>0.7532314923619271</v>
       </c>
       <c r="C276" t="n">
         <v>0.1918597559575357</v>
@@ -3481,10 +3481,10 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.495575221238938</v>
+        <v>0.4933920704845815</v>
       </c>
       <c r="B277" t="n">
-        <v>0.7541176470588236</v>
+        <v>0.7532314923619271</v>
       </c>
       <c r="C277" t="n">
         <v>0.191788845523086</v>
@@ -3492,10 +3492,10 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.497787610619469</v>
+        <v>0.4955947136563877</v>
       </c>
       <c r="B278" t="n">
-        <v>0.7552941176470588</v>
+        <v>0.754406580493537</v>
       </c>
       <c r="C278" t="n">
         <v>0.1913624318829449</v>
@@ -3503,10 +3503,10 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.497787610619469</v>
+        <v>0.4955947136563877</v>
       </c>
       <c r="B279" t="n">
-        <v>0.7588235294117647</v>
+        <v>0.7579318448883666</v>
       </c>
       <c r="C279" t="n">
         <v>0.1911357088925578</v>
@@ -3514,10 +3514,10 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.497787610619469</v>
+        <v>0.4955947136563877</v>
       </c>
       <c r="B280" t="n">
-        <v>0.7611764705882353</v>
+        <v>0.7602820211515864</v>
       </c>
       <c r="C280" t="n">
         <v>0.1906859855489043</v>
@@ -3525,10 +3525,10 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.5</v>
+        <v>0.4977973568281938</v>
       </c>
       <c r="B281" t="n">
-        <v>0.7611764705882353</v>
+        <v>0.7602820211515864</v>
       </c>
       <c r="C281" t="n">
         <v>0.1905065007589484</v>
@@ -3536,10 +3536,10 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.5</v>
+        <v>0.4977973568281938</v>
       </c>
       <c r="B282" t="n">
-        <v>0.7635294117647059</v>
+        <v>0.7626321974148061</v>
       </c>
       <c r="C282" t="n">
         <v>0.190343221128094</v>
@@ -3547,10 +3547,10 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.5</v>
+        <v>0.4977973568281938</v>
       </c>
       <c r="B283" t="n">
-        <v>0.7670588235294118</v>
+        <v>0.7661574618096357</v>
       </c>
       <c r="C283" t="n">
         <v>0.1900822676723057</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.5</v>
+        <v>0.4977973568281938</v>
       </c>
       <c r="B284" t="n">
-        <v>0.7694117647058824</v>
+        <v>0.7685076380728555</v>
       </c>
       <c r="C284" t="n">
         <v>0.1898567052951588</v>
@@ -3569,10 +3569,10 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.5</v>
+        <v>0.4977973568281938</v>
       </c>
       <c r="B285" t="n">
-        <v>0.7717647058823529</v>
+        <v>0.7708578143360753</v>
       </c>
       <c r="C285" t="n">
         <v>0.1890682809871788</v>
@@ -3580,10 +3580,10 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.5022123893805309</v>
+        <v>0.5</v>
       </c>
       <c r="B286" t="n">
-        <v>0.7717647058823529</v>
+        <v>0.7708578143360753</v>
       </c>
       <c r="C286" t="n">
         <v>0.1884542920073876</v>
@@ -3591,10 +3591,10 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.5022123893805309</v>
+        <v>0.5</v>
       </c>
       <c r="B287" t="n">
-        <v>0.7764705882352941</v>
+        <v>0.7755581668625147</v>
       </c>
       <c r="C287" t="n">
         <v>0.1871890789782522</v>
@@ -3602,10 +3602,10 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.5066371681415929</v>
+        <v>0.5044052863436124</v>
       </c>
       <c r="B288" t="n">
-        <v>0.7764705882352941</v>
+        <v>0.7755581668625147</v>
       </c>
       <c r="C288" t="n">
         <v>0.1866988384245378</v>
@@ -3613,10 +3613,10 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.5066371681415929</v>
+        <v>0.5044052863436124</v>
       </c>
       <c r="B289" t="n">
-        <v>0.7776470588235294</v>
+        <v>0.7767332549941246</v>
       </c>
       <c r="C289" t="n">
         <v>0.1866389015587046</v>
@@ -3624,10 +3624,10 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.5088495575221239</v>
+        <v>0.5066079295154186</v>
       </c>
       <c r="B290" t="n">
-        <v>0.7776470588235294</v>
+        <v>0.7767332549941246</v>
       </c>
       <c r="C290" t="n">
         <v>0.1862811332734987</v>
@@ -3635,10 +3635,10 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.5088495575221239</v>
+        <v>0.5066079295154186</v>
       </c>
       <c r="B291" t="n">
-        <v>0.7788235294117647</v>
+        <v>0.7779083431257344</v>
       </c>
       <c r="C291" t="n">
         <v>0.1860590453266478</v>
@@ -3646,10 +3646,10 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.5110619469026548</v>
+        <v>0.5088105726872246</v>
       </c>
       <c r="B292" t="n">
-        <v>0.7788235294117647</v>
+        <v>0.7779083431257344</v>
       </c>
       <c r="C292" t="n">
         <v>0.1857076432422826</v>
@@ -3657,10 +3657,10 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.5154867256637168</v>
+        <v>0.513215859030837</v>
       </c>
       <c r="B293" t="n">
-        <v>0.7788235294117647</v>
+        <v>0.7779083431257344</v>
       </c>
       <c r="C293" t="n">
         <v>0.1854427178212085</v>
@@ -3668,10 +3668,10 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.5154867256637168</v>
+        <v>0.513215859030837</v>
       </c>
       <c r="B294" t="n">
-        <v>0.78</v>
+        <v>0.7790834312573442</v>
       </c>
       <c r="C294" t="n">
         <v>0.1852827848777222</v>
@@ -3679,10 +3679,10 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.5199115044247787</v>
+        <v>0.5176211453744494</v>
       </c>
       <c r="B295" t="n">
-        <v>0.78</v>
+        <v>0.7790834312573442</v>
       </c>
       <c r="C295" t="n">
         <v>0.1841931344649082</v>
@@ -3690,10 +3690,10 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.5199115044247787</v>
+        <v>0.5176211453744494</v>
       </c>
       <c r="B296" t="n">
-        <v>0.7870588235294118</v>
+        <v>0.7861339600470035</v>
       </c>
       <c r="C296" t="n">
         <v>0.1818866080628941</v>
@@ -3701,10 +3701,10 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.5199115044247787</v>
+        <v>0.5176211453744494</v>
       </c>
       <c r="B297" t="n">
-        <v>0.7917647058823529</v>
+        <v>0.7908343125734431</v>
       </c>
       <c r="C297" t="n">
         <v>0.181654852230119</v>
@@ -3712,10 +3712,10 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.5199115044247787</v>
+        <v>0.5176211453744494</v>
       </c>
       <c r="B298" t="n">
-        <v>0.7929411764705883</v>
+        <v>0.7920094007050529</v>
       </c>
       <c r="C298" t="n">
         <v>0.1813045082287751</v>
@@ -3723,10 +3723,10 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.5199115044247787</v>
+        <v>0.5176211453744494</v>
       </c>
       <c r="B299" t="n">
-        <v>0.7952941176470588</v>
+        <v>0.7943595769682726</v>
       </c>
       <c r="C299" t="n">
         <v>0.1812241547506485</v>
@@ -3734,10 +3734,10 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.5199115044247787</v>
+        <v>0.5176211453744494</v>
       </c>
       <c r="B300" t="n">
-        <v>0.8</v>
+        <v>0.7990599294947121</v>
       </c>
       <c r="C300" t="n">
         <v>0.1792019280860455</v>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.5199115044247787</v>
+        <v>0.5176211453744494</v>
       </c>
       <c r="B301" t="n">
-        <v>0.8023529411764706</v>
+        <v>0.8014101057579318</v>
       </c>
       <c r="C301" t="n">
         <v>0.1787757758860458</v>
@@ -3756,10 +3756,10 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>0.5199115044247787</v>
+        <v>0.5176211453744494</v>
       </c>
       <c r="B302" t="n">
-        <v>0.8035294117647059</v>
+        <v>0.8025851938895417</v>
       </c>
       <c r="C302" t="n">
         <v>0.1766783114613383</v>
@@ -3767,10 +3767,10 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>0.5199115044247787</v>
+        <v>0.5176211453744494</v>
       </c>
       <c r="B303" t="n">
-        <v>0.8058823529411765</v>
+        <v>0.8049353701527615</v>
       </c>
       <c r="C303" t="n">
         <v>0.1756945898730704</v>
@@ -3778,10 +3778,10 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>0.5199115044247787</v>
+        <v>0.5176211453744494</v>
       </c>
       <c r="B304" t="n">
-        <v>0.8070588235294117</v>
+        <v>0.8061104582843713</v>
       </c>
       <c r="C304" t="n">
         <v>0.175571205513305</v>
@@ -3789,10 +3789,10 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>0.5199115044247787</v>
+        <v>0.5176211453744494</v>
       </c>
       <c r="B305" t="n">
-        <v>0.8105882352941176</v>
+        <v>0.8096357226792009</v>
       </c>
       <c r="C305" t="n">
         <v>0.1739567963236015</v>
@@ -3800,10 +3800,10 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>0.5199115044247787</v>
+        <v>0.5176211453744494</v>
       </c>
       <c r="B306" t="n">
-        <v>0.8152941176470588</v>
+        <v>0.8143360752056404</v>
       </c>
       <c r="C306" t="n">
         <v>0.1730879365281451</v>
@@ -3811,10 +3811,10 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>0.5221238938053098</v>
+        <v>0.5198237885462555</v>
       </c>
       <c r="B307" t="n">
-        <v>0.8152941176470588</v>
+        <v>0.8143360752056404</v>
       </c>
       <c r="C307" t="n">
         <v>0.1711250507473792</v>
@@ -3822,10 +3822,10 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>0.5221238938053098</v>
+        <v>0.5198237885462555</v>
       </c>
       <c r="B308" t="n">
-        <v>0.8164705882352942</v>
+        <v>0.8155111633372503</v>
       </c>
       <c r="C308" t="n">
         <v>0.1710414612549405</v>
@@ -3833,10 +3833,10 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>0.5243362831858407</v>
+        <v>0.5220264317180616</v>
       </c>
       <c r="B309" t="n">
-        <v>0.8164705882352942</v>
+        <v>0.8155111633372503</v>
       </c>
       <c r="C309" t="n">
         <v>0.169368591028447</v>
@@ -3844,10 +3844,10 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>0.5287610619469026</v>
+        <v>0.526431718061674</v>
       </c>
       <c r="B310" t="n">
-        <v>0.8164705882352942</v>
+        <v>0.8155111633372503</v>
       </c>
       <c r="C310" t="n">
         <v>0.1676710329182089</v>
@@ -3855,10 +3855,10 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0.5287610619469026</v>
+        <v>0.526431718061674</v>
       </c>
       <c r="B311" t="n">
-        <v>0.8176470588235294</v>
+        <v>0.8166862514688602</v>
       </c>
       <c r="C311" t="n">
         <v>0.1673251086580316</v>
@@ -3866,10 +3866,10 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>0.5353982300884956</v>
+        <v>0.5330396475770925</v>
       </c>
       <c r="B312" t="n">
-        <v>0.8176470588235294</v>
+        <v>0.8166862514688602</v>
       </c>
       <c r="C312" t="n">
         <v>0.1670477051224114</v>
@@ -3877,10 +3877,10 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>0.5420353982300885</v>
+        <v>0.539647577092511</v>
       </c>
       <c r="B313" t="n">
-        <v>0.8176470588235294</v>
+        <v>0.8166862514688602</v>
       </c>
       <c r="C313" t="n">
         <v>0.1658968295338529</v>
@@ -3888,10 +3888,10 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>0.5508849557522124</v>
+        <v>0.5484581497797357</v>
       </c>
       <c r="B314" t="n">
-        <v>0.8223529411764706</v>
+        <v>0.8213866039952996</v>
       </c>
       <c r="C314" t="n">
         <v>0.1647523146110149</v>
@@ -3899,10 +3899,10 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>0.5508849557522124</v>
+        <v>0.5484581497797357</v>
       </c>
       <c r="B315" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.8225616921269095</v>
       </c>
       <c r="C315" t="n">
         <v>0.164100603488303</v>
@@ -3910,10 +3910,10 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>0.5530973451327433</v>
+        <v>0.5506607929515418</v>
       </c>
       <c r="B316" t="n">
-        <v>0.8247058823529412</v>
+        <v>0.8237367802585194</v>
       </c>
       <c r="C316" t="n">
         <v>0.1636141468085323</v>
@@ -3921,10 +3921,10 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>0.5575221238938053</v>
+        <v>0.5550660792951542</v>
       </c>
       <c r="B317" t="n">
-        <v>0.8247058823529412</v>
+        <v>0.8237367802585194</v>
       </c>
       <c r="C317" t="n">
         <v>0.1624823122966568</v>
@@ -3932,10 +3932,10 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>0.5619469026548672</v>
+        <v>0.5594713656387665</v>
       </c>
       <c r="B318" t="n">
-        <v>0.8258823529411765</v>
+        <v>0.8249118683901293</v>
       </c>
       <c r="C318" t="n">
         <v>0.1623767296269043</v>
@@ -3943,10 +3943,10 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>0.5619469026548672</v>
+        <v>0.5594713656387665</v>
       </c>
       <c r="B319" t="n">
-        <v>0.8270588235294117</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C319" t="n">
         <v>0.1618378407658984</v>
@@ -3954,10 +3954,10 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>0.5641592920353983</v>
+        <v>0.5616740088105727</v>
       </c>
       <c r="B320" t="n">
-        <v>0.8294117647058824</v>
+        <v>0.8284371327849589</v>
       </c>
       <c r="C320" t="n">
         <v>0.1613567969658731</v>
@@ -3965,10 +3965,10 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>0.5730088495575221</v>
+        <v>0.5704845814977973</v>
       </c>
       <c r="B321" t="n">
-        <v>0.8305882352941176</v>
+        <v>0.8296122209165687</v>
       </c>
       <c r="C321" t="n">
         <v>0.1612518048526201</v>
@@ -3976,10 +3976,10 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>0.5730088495575221</v>
+        <v>0.5704845814977973</v>
       </c>
       <c r="B322" t="n">
-        <v>0.8329411764705882</v>
+        <v>0.8319623971797885</v>
       </c>
       <c r="C322" t="n">
         <v>0.1610722679011481</v>
@@ -3987,10 +3987,10 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>0.5752212389380531</v>
+        <v>0.5726872246696035</v>
       </c>
       <c r="B323" t="n">
-        <v>0.8329411764705882</v>
+        <v>0.8319623971797885</v>
       </c>
       <c r="C323" t="n">
         <v>0.1607954551558954</v>
@@ -3998,10 +3998,10 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>0.5752212389380531</v>
+        <v>0.5726872246696035</v>
       </c>
       <c r="B324" t="n">
-        <v>0.8341176470588235</v>
+        <v>0.8331374853113983</v>
       </c>
       <c r="C324" t="n">
         <v>0.1607159330199246</v>
@@ -4009,10 +4009,10 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>0.577433628318584</v>
+        <v>0.5748898678414097</v>
       </c>
       <c r="B325" t="n">
-        <v>0.8341176470588235</v>
+        <v>0.8331374853113983</v>
       </c>
       <c r="C325" t="n">
         <v>0.1602375864315009</v>
@@ -4020,10 +4020,10 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>0.5796460176991151</v>
+        <v>0.5770925110132159</v>
       </c>
       <c r="B326" t="n">
-        <v>0.8364705882352941</v>
+        <v>0.8354876615746181</v>
       </c>
       <c r="C326" t="n">
         <v>0.1601331835148533</v>
@@ -4031,10 +4031,10 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>0.5796460176991151</v>
+        <v>0.5770925110132159</v>
       </c>
       <c r="B327" t="n">
-        <v>0.8435294117647059</v>
+        <v>0.8425381903642774</v>
       </c>
       <c r="C327" t="n">
         <v>0.1599546545121619</v>
@@ -4042,10 +4042,10 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>0.5796460176991151</v>
+        <v>0.5770925110132159</v>
       </c>
       <c r="B328" t="n">
-        <v>0.8447058823529412</v>
+        <v>0.8437132784958872</v>
       </c>
       <c r="C328" t="n">
         <v>0.159600321721632</v>
@@ -4053,10 +4053,10 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>0.584070796460177</v>
+        <v>0.5814977973568282</v>
       </c>
       <c r="B329" t="n">
-        <v>0.8447058823529412</v>
+        <v>0.8437132784958872</v>
       </c>
       <c r="C329" t="n">
         <v>0.1591246660382818</v>
@@ -4064,10 +4064,10 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>0.5862831858407079</v>
+        <v>0.5837004405286343</v>
       </c>
       <c r="B330" t="n">
-        <v>0.8458823529411764</v>
+        <v>0.8448883666274971</v>
       </c>
       <c r="C330" t="n">
         <v>0.1590208509332607</v>
@@ -4075,10 +4075,10 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>0.5862831858407079</v>
+        <v>0.5837004405286343</v>
       </c>
       <c r="B331" t="n">
-        <v>0.8529411764705882</v>
+        <v>0.8519388954171563</v>
       </c>
       <c r="C331" t="n">
         <v>0.1588433275039509</v>
@@ -4086,10 +4086,10 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>0.5862831858407079</v>
+        <v>0.5837004405286343</v>
       </c>
       <c r="B332" t="n">
-        <v>0.8541176470588235</v>
+        <v>0.8531139835487661</v>
       </c>
       <c r="C332" t="n">
         <v>0.1586140710584579</v>
@@ -4097,10 +4097,10 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>0.588495575221239</v>
+        <v>0.5859030837004405</v>
       </c>
       <c r="B333" t="n">
-        <v>0.8541176470588235</v>
+        <v>0.8531139835487661</v>
       </c>
       <c r="C333" t="n">
         <v>0.158569621297481</v>
@@ -4108,10 +4108,10 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>0.588495575221239</v>
+        <v>0.5859030837004405</v>
       </c>
       <c r="B334" t="n">
-        <v>0.8552941176470589</v>
+        <v>0.854289071680376</v>
       </c>
       <c r="C334" t="n">
         <v>0.1580180208649513</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>0.5907079646017699</v>
+        <v>0.5881057268722467</v>
       </c>
       <c r="B335" t="n">
-        <v>0.8552941176470589</v>
+        <v>0.854289071680376</v>
       </c>
       <c r="C335" t="n">
         <v>0.1579147921619217</v>
@@ -4130,10 +4130,10 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>0.5907079646017699</v>
+        <v>0.5881057268722467</v>
       </c>
       <c r="B336" t="n">
-        <v>0.86</v>
+        <v>0.8589894242068156</v>
       </c>
       <c r="C336" t="n">
         <v>0.157738271888492</v>
@@ -4141,10 +4141,10 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>0.5907079646017699</v>
+        <v>0.5881057268722467</v>
       </c>
       <c r="B337" t="n">
-        <v>0.8623529411764705</v>
+        <v>0.8613396004700352</v>
       </c>
       <c r="C337" t="n">
         <v>0.1575103117006305</v>
@@ -4152,10 +4152,10 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>0.5929203539823009</v>
+        <v>0.5903083700440529</v>
       </c>
       <c r="B338" t="n">
-        <v>0.8623529411764705</v>
+        <v>0.8613396004700352</v>
       </c>
       <c r="C338" t="n">
         <v>0.1574661133667375</v>
@@ -4163,10 +4163,10 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>0.5929203539823009</v>
+        <v>0.5903083700440529</v>
       </c>
       <c r="B339" t="n">
-        <v>0.8658823529411764</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C339" t="n">
         <v>0.1562911171208903</v>
@@ -4174,10 +4174,10 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>0.5951327433628318</v>
+        <v>0.5925110132158591</v>
       </c>
       <c r="B340" t="n">
-        <v>0.8682352941176471</v>
+        <v>0.8672150411280846</v>
       </c>
       <c r="C340" t="n">
         <v>0.1557214349657194</v>
@@ -4185,10 +4185,10 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>0.5951327433628318</v>
+        <v>0.5925110132158591</v>
       </c>
       <c r="B341" t="n">
-        <v>0.8694117647058823</v>
+        <v>0.8683901292596945</v>
       </c>
       <c r="C341" t="n">
         <v>0.1555469135867776</v>
@@ -4196,10 +4196,10 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>0.5951327433628318</v>
+        <v>0.5925110132158591</v>
       </c>
       <c r="B342" t="n">
-        <v>0.8729411764705882</v>
+        <v>0.8719153936545241</v>
       </c>
       <c r="C342" t="n">
         <v>0.1553215362964702</v>
@@ -4207,10 +4207,10 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>0.5973451327433629</v>
+        <v>0.5947136563876652</v>
       </c>
       <c r="B343" t="n">
-        <v>0.8729411764705882</v>
+        <v>0.8719153936545241</v>
       </c>
       <c r="C343" t="n">
         <v>0.1547355835570757</v>
@@ -4218,10 +4218,10 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>0.6017699115044248</v>
+        <v>0.5991189427312775</v>
       </c>
       <c r="B344" t="n">
-        <v>0.8729411764705882</v>
+        <v>0.8719153936545241</v>
       </c>
       <c r="C344" t="n">
         <v>0.1546341053620066</v>
@@ -4229,10 +4229,10 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>0.6017699115044248</v>
+        <v>0.5991189427312775</v>
       </c>
       <c r="B345" t="n">
-        <v>0.8764705882352941</v>
+        <v>0.8754406580493537</v>
       </c>
       <c r="C345" t="n">
         <v>0.154460579641096</v>
@@ -4240,10 +4240,10 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>0.6017699115044248</v>
+        <v>0.5991189427312775</v>
       </c>
       <c r="B346" t="n">
-        <v>0.8811764705882353</v>
+        <v>0.8801410105757932</v>
       </c>
       <c r="C346" t="n">
         <v>0.1542364888868878</v>
@@ -4251,10 +4251,10 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>0.6061946902654868</v>
+        <v>0.6035242290748899</v>
       </c>
       <c r="B347" t="n">
-        <v>0.8811764705882353</v>
+        <v>0.8801410105757932</v>
       </c>
       <c r="C347" t="n">
         <v>0.1541930410744957</v>
@@ -4262,10 +4262,10 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>0.6061946902654868</v>
+        <v>0.6035242290748899</v>
       </c>
       <c r="B348" t="n">
-        <v>0.8835294117647059</v>
+        <v>0.882491186839013</v>
       </c>
       <c r="C348" t="n">
         <v>0.1541161845434821</v>
@@ -4273,10 +4273,10 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>0.6061946902654868</v>
+        <v>0.6035242290748899</v>
       </c>
       <c r="B349" t="n">
-        <v>0.8847058823529412</v>
+        <v>0.8836662749706228</v>
       </c>
       <c r="C349" t="n">
         <v>0.1533804545783246</v>
@@ -4284,10 +4284,10 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>0.6061946902654868</v>
+        <v>0.6035242290748899</v>
       </c>
       <c r="B350" t="n">
-        <v>0.888235294117647</v>
+        <v>0.8871915393654524</v>
       </c>
       <c r="C350" t="n">
         <v>0.1531576470174309</v>
@@ -4295,10 +4295,10 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>0.6106194690265486</v>
+        <v>0.6079295154185022</v>
       </c>
       <c r="B351" t="n">
-        <v>0.888235294117647</v>
+        <v>0.8871915393654524</v>
       </c>
       <c r="C351" t="n">
         <v>0.1531144480924234</v>
@@ -4306,10 +4306,10 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>0.6106194690265486</v>
+        <v>0.6079295154185022</v>
       </c>
       <c r="B352" t="n">
-        <v>0.8894117647058823</v>
+        <v>0.8883666274970623</v>
       </c>
       <c r="C352" t="n">
         <v>0.1519660666836994</v>
@@ -4317,10 +4317,10 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>0.6106194690265486</v>
+        <v>0.6079295154185022</v>
       </c>
       <c r="B353" t="n">
-        <v>0.8917647058823529</v>
+        <v>0.8907168037602821</v>
       </c>
       <c r="C353" t="n">
         <v>0.1510185144861245</v>
@@ -4328,10 +4328,10 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>0.6106194690265486</v>
+        <v>0.6079295154185022</v>
       </c>
       <c r="B354" t="n">
-        <v>0.8929411764705882</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C354" t="n">
         <v>0.1509002723254886</v>
@@ -4339,10 +4339,10 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>0.6128318584070797</v>
+        <v>0.6101321585903083</v>
       </c>
       <c r="B355" t="n">
-        <v>0.8929411764705882</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C355" t="n">
         <v>0.1496422397858186</v>
@@ -4350,10 +4350,10 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>0.6128318584070797</v>
+        <v>0.6101321585903083</v>
       </c>
       <c r="B356" t="n">
-        <v>0.8976470588235295</v>
+        <v>0.8965922444183314</v>
       </c>
       <c r="C356" t="n">
         <v>0.1466984643480676</v>
@@ -4361,10 +4361,10 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>0.6128318584070797</v>
+        <v>0.6101321585903083</v>
       </c>
       <c r="B357" t="n">
-        <v>0.9011764705882352</v>
+        <v>0.900117508813161</v>
       </c>
       <c r="C357" t="n">
         <v>0.1465510819637461</v>
@@ -4372,10 +4372,10 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>0.6128318584070797</v>
+        <v>0.6101321585903083</v>
       </c>
       <c r="B358" t="n">
-        <v>0.9094117647058824</v>
+        <v>0.9083431257344301</v>
       </c>
       <c r="C358" t="n">
         <v>0.1455167482599066</v>
@@ -4383,10 +4383,10 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>0.6128318584070797</v>
+        <v>0.6101321585903083</v>
       </c>
       <c r="B359" t="n">
-        <v>0.9117647058823529</v>
+        <v>0.9106933019976499</v>
       </c>
       <c r="C359" t="n">
         <v>0.1446341384155148</v>
@@ -4394,10 +4394,10 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>0.6128318584070797</v>
+        <v>0.6101321585903083</v>
       </c>
       <c r="B360" t="n">
-        <v>0.9235294117647059</v>
+        <v>0.9224441833137486</v>
       </c>
       <c r="C360" t="n">
         <v>0.144488478801829</v>
@@ -4405,10 +4405,10 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>0.6150442477876106</v>
+        <v>0.6123348017621145</v>
       </c>
       <c r="B361" t="n">
-        <v>0.9235294117647059</v>
+        <v>0.9224441833137486</v>
       </c>
       <c r="C361" t="n">
         <v>0.1434902701313409</v>
@@ -4416,10 +4416,10 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>0.6150442477876106</v>
+        <v>0.6123348017621145</v>
       </c>
       <c r="B362" t="n">
-        <v>0.9258823529411765</v>
+        <v>0.9247943595769683</v>
       </c>
       <c r="C362" t="n">
         <v>0.1434662554714992</v>
@@ -4427,10 +4427,10 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>0.6172566371681416</v>
+        <v>0.6145374449339207</v>
       </c>
       <c r="B363" t="n">
-        <v>0.9258823529411765</v>
+        <v>0.9247943595769683</v>
       </c>
       <c r="C363" t="n">
         <v>0.1430797563105511</v>
@@ -4438,10 +4438,10 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>0.6216814159292036</v>
+        <v>0.6189427312775331</v>
       </c>
       <c r="B364" t="n">
-        <v>0.9258823529411765</v>
+        <v>0.9247943595769683</v>
       </c>
       <c r="C364" t="n">
         <v>0.1424739328038856</v>
@@ -4449,10 +4449,10 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>0.6283185840707964</v>
+        <v>0.6255506607929515</v>
       </c>
       <c r="B365" t="n">
-        <v>0.9305882352941176</v>
+        <v>0.9294947121034077</v>
       </c>
       <c r="C365" t="n">
         <v>0.1414636052077472</v>
@@ -4460,10 +4460,10 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>0.6305309734513275</v>
+        <v>0.6277533039647577</v>
       </c>
       <c r="B366" t="n">
-        <v>0.9305882352941176</v>
+        <v>0.9294947121034077</v>
       </c>
       <c r="C366" t="n">
         <v>0.1410579346199032</v>
@@ -4471,10 +4471,10 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>0.6305309734513275</v>
+        <v>0.6277533039647577</v>
       </c>
       <c r="B367" t="n">
-        <v>0.9317647058823529</v>
+        <v>0.9306698002350177</v>
       </c>
       <c r="C367" t="n">
         <v>0.1405779233954587</v>
@@ -4482,10 +4482,10 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>0.6371681415929203</v>
+        <v>0.6343612334801763</v>
       </c>
       <c r="B368" t="n">
-        <v>0.9317647058823529</v>
+        <v>0.9306698002350177</v>
       </c>
       <c r="C368" t="n">
         <v>0.1404592686389572</v>
@@ -4493,10 +4493,10 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>0.6415929203539823</v>
+        <v>0.6387665198237885</v>
       </c>
       <c r="B369" t="n">
-        <v>0.9329411764705883</v>
+        <v>0.9318448883666275</v>
       </c>
       <c r="C369" t="n">
         <v>0.1394609042050249</v>
@@ -4504,10 +4504,10 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>0.6415929203539823</v>
+        <v>0.6387665198237885</v>
       </c>
       <c r="B370" t="n">
-        <v>0.9341176470588235</v>
+        <v>0.9330199764982373</v>
       </c>
       <c r="C370" t="n">
         <v>0.1385857370020939</v>
@@ -4515,10 +4515,10 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>0.6482300884955752</v>
+        <v>0.6453744493392071</v>
       </c>
       <c r="B371" t="n">
-        <v>0.9352941176470588</v>
+        <v>0.9341950646298472</v>
       </c>
       <c r="C371" t="n">
         <v>0.1384684928290866</v>
@@ -4526,10 +4526,10 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>0.6526548672566371</v>
+        <v>0.6497797356828194</v>
       </c>
       <c r="B372" t="n">
-        <v>0.9352941176470588</v>
+        <v>0.9341950646298472</v>
       </c>
       <c r="C372" t="n">
         <v>0.1365014520465763</v>
@@ -4537,10 +4537,10 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>0.6526548672566371</v>
+        <v>0.6497797356828194</v>
       </c>
       <c r="B373" t="n">
-        <v>0.9376470588235294</v>
+        <v>0.936545240893067</v>
       </c>
       <c r="C373" t="n">
         <v>0.1309545756558735</v>
@@ -4548,10 +4548,10 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>0.6570796460176991</v>
+        <v>0.6541850220264317</v>
       </c>
       <c r="B374" t="n">
-        <v>0.9376470588235294</v>
+        <v>0.936545240893067</v>
       </c>
       <c r="C374" t="n">
         <v>0.1303615739994439</v>
@@ -4559,10 +4559,10 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>0.6570796460176991</v>
+        <v>0.6541850220264317</v>
       </c>
       <c r="B375" t="n">
-        <v>0.9447058823529412</v>
+        <v>0.9435957696827262</v>
       </c>
       <c r="C375" t="n">
         <v>0.1182964722085652</v>
@@ -4570,10 +4570,10 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>0.6570796460176991</v>
+        <v>0.6541850220264317</v>
       </c>
       <c r="B376" t="n">
-        <v>0.951764705882353</v>
+        <v>0.9506462984723855</v>
       </c>
       <c r="C376" t="n">
         <v>0.1154750301410657</v>
@@ -4581,10 +4581,10 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>0.6570796460176991</v>
+        <v>0.6541850220264317</v>
       </c>
       <c r="B377" t="n">
-        <v>0.9588235294117647</v>
+        <v>0.9576968272620446</v>
       </c>
       <c r="C377" t="n">
         <v>0.1091068596195929</v>
@@ -4592,10 +4592,10 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>0.6769911504424779</v>
+        <v>0.6740088105726872</v>
       </c>
       <c r="B378" t="n">
-        <v>0.96</v>
+        <v>0.9588719153936546</v>
       </c>
       <c r="C378" t="n">
         <v>0.1060351891701106</v>
@@ -4603,10 +4603,10 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>0.6769911504424779</v>
+        <v>0.6740088105726872</v>
       </c>
       <c r="B379" t="n">
-        <v>0.9611764705882353</v>
+        <v>0.9600470035252644</v>
       </c>
       <c r="C379" t="n">
         <v>0.1056915956064121</v>
@@ -4614,10 +4614,10 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>0.6924778761061947</v>
+        <v>0.6894273127753304</v>
       </c>
       <c r="B380" t="n">
-        <v>0.9635294117647059</v>
+        <v>0.9623971797884842</v>
       </c>
       <c r="C380" t="n">
         <v>0.1052515447143245</v>
@@ -4625,10 +4625,10 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>0.6969026548672567</v>
+        <v>0.6938325991189427</v>
       </c>
       <c r="B381" t="n">
-        <v>0.9658823529411765</v>
+        <v>0.9647473560517039</v>
       </c>
       <c r="C381" t="n">
         <v>0.1044730149013857</v>
@@ -4636,10 +4636,10 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>0.6991150442477876</v>
+        <v>0.6960352422907489</v>
       </c>
       <c r="B382" t="n">
-        <v>0.9658823529411765</v>
+        <v>0.9647473560517039</v>
       </c>
       <c r="C382" t="n">
         <v>0.09992731777246912</v>
@@ -4647,10 +4647,10 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>0.7057522123893806</v>
+        <v>0.7026431718061674</v>
       </c>
       <c r="B383" t="n">
-        <v>0.9658823529411765</v>
+        <v>0.9647473560517039</v>
       </c>
       <c r="C383" t="n">
         <v>0.09918380487185509</v>
@@ -4658,10 +4658,10 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>0.7146017699115044</v>
+        <v>0.711453744493392</v>
       </c>
       <c r="B384" t="n">
-        <v>0.9658823529411765</v>
+        <v>0.9647473560517039</v>
       </c>
       <c r="C384" t="n">
         <v>0.09844521903058215</v>
@@ -4669,10 +4669,10 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>0.7212389380530974</v>
+        <v>0.7180616740088106</v>
       </c>
       <c r="B385" t="n">
-        <v>0.9658823529411765</v>
+        <v>0.9647473560517039</v>
       </c>
       <c r="C385" t="n">
         <v>0.09771153658736995</v>
@@ -4680,10 +4680,10 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>0.7212389380530974</v>
+        <v>0.7180616740088106</v>
       </c>
       <c r="B386" t="n">
-        <v>0.9670588235294117</v>
+        <v>0.9659224441833137</v>
       </c>
       <c r="C386" t="n">
         <v>0.09758877651029112</v>
@@ -4691,10 +4691,10 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>0.7278761061946902</v>
+        <v>0.724669603524229</v>
       </c>
       <c r="B387" t="n">
-        <v>0.9670588235294117</v>
+        <v>0.9659224441833137</v>
       </c>
       <c r="C387" t="n">
         <v>0.09698273385899157</v>
@@ -4702,10 +4702,10 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>0.7300884955752213</v>
+        <v>0.7268722466960352</v>
       </c>
       <c r="B388" t="n">
-        <v>0.9670588235294117</v>
+        <v>0.9659224441833137</v>
       </c>
       <c r="C388" t="n">
         <v>0.09625878714275556</v>
@@ -4713,10 +4713,10 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>0.7367256637168141</v>
+        <v>0.7334801762114538</v>
       </c>
       <c r="B389" t="n">
-        <v>0.9670588235294117</v>
+        <v>0.9659224441833137</v>
       </c>
       <c r="C389" t="n">
         <v>0.0948253668532707</v>
@@ -4724,10 +4724,10 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>0.7367256637168141</v>
+        <v>0.7334801762114538</v>
       </c>
       <c r="B390" t="n">
-        <v>0.9682352941176471</v>
+        <v>0.9670975323149236</v>
       </c>
       <c r="C390" t="n">
         <v>0.09470585222476874</v>
@@ -4735,10 +4735,10 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>0.7433628318584071</v>
+        <v>0.7400881057268722</v>
       </c>
       <c r="B391" t="n">
-        <v>0.9682352941176471</v>
+        <v>0.9670975323149236</v>
       </c>
       <c r="C391" t="n">
         <v>0.09411584579916948</v>
@@ -4746,10 +4746,10 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>0.745575221238938</v>
+        <v>0.7422907488986784</v>
       </c>
       <c r="B392" t="n">
-        <v>0.9682352941176471</v>
+        <v>0.9670975323149236</v>
       </c>
       <c r="C392" t="n">
         <v>0.09271106309245995</v>
@@ -4757,10 +4757,10 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>0.745575221238938</v>
+        <v>0.7422907488986784</v>
       </c>
       <c r="B393" t="n">
-        <v>0.9694117647058823</v>
+        <v>0.9682726204465335</v>
       </c>
       <c r="C393" t="n">
         <v>0.09215431707356107</v>
@@ -4768,10 +4768,10 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>0.7477876106194691</v>
+        <v>0.7444933920704846</v>
       </c>
       <c r="B394" t="n">
-        <v>0.9741176470588235</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="C394" t="n">
         <v>0.09146276241739244</v>
@@ -4779,10 +4779,10 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>0.7522123893805309</v>
+        <v>0.748898678414097</v>
       </c>
       <c r="B395" t="n">
-        <v>0.9776470588235294</v>
+        <v>0.9764982373678026</v>
       </c>
       <c r="C395" t="n">
         <v>0.09077587848799648</v>
@@ -4790,10 +4790,10 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>0.7588495575221239</v>
+        <v>0.7555066079295154</v>
       </c>
       <c r="B396" t="n">
-        <v>0.98</v>
+        <v>0.9788484136310224</v>
       </c>
       <c r="C396" t="n">
         <v>0.09009364151309662</v>
@@ -4801,10 +4801,10 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>0.7654867256637168</v>
+        <v>0.762114537444934</v>
       </c>
       <c r="B397" t="n">
-        <v>0.9811764705882353</v>
+        <v>0.9800235017626322</v>
       </c>
       <c r="C397" t="n">
         <v>0.08941602772347187</v>
@@ -4812,10 +4812,10 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>0.7654867256637168</v>
+        <v>0.762114537444934</v>
       </c>
       <c r="B398" t="n">
-        <v>0.9858823529411764</v>
+        <v>0.9847238542890717</v>
       </c>
       <c r="C398" t="n">
         <v>0.07956677774920551</v>
@@ -4823,10 +4823,10 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>0.7676991150442478</v>
+        <v>0.76431718061674</v>
       </c>
       <c r="B399" t="n">
-        <v>0.9858823529411764</v>
+        <v>0.9847238542890717</v>
       </c>
       <c r="C399" t="n">
         <v>0.07911194408162789</v>
@@ -4834,10 +4834,10 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>0.7699115044247787</v>
+        <v>0.7665198237885462</v>
       </c>
       <c r="B400" t="n">
-        <v>0.9870588235294118</v>
+        <v>0.9858989424206815</v>
       </c>
       <c r="C400" t="n">
         <v>0.07850979937811856</v>
@@ -4845,10 +4845,10 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>0.7699115044247787</v>
+        <v>0.7665198237885462</v>
       </c>
       <c r="B401" t="n">
-        <v>0.9882352941176471</v>
+        <v>0.9870740305522914</v>
       </c>
       <c r="C401" t="n">
         <v>0.07731807267923531</v>
@@ -4856,10 +4856,10 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>0.7743362831858407</v>
+        <v>0.7709251101321586</v>
       </c>
       <c r="B402" t="n">
-        <v>0.9882352941176471</v>
+        <v>0.9870740305522914</v>
       </c>
       <c r="C402" t="n">
         <v>0.07674440129613533</v>
@@ -4867,10 +4867,10 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>0.7765486725663717</v>
+        <v>0.7731277533039648</v>
       </c>
       <c r="B403" t="n">
-        <v>0.9894117647058823</v>
+        <v>0.9882491186839013</v>
       </c>
       <c r="C403" t="n">
         <v>0.07672844404187877</v>
@@ -4878,10 +4878,10 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>0.7765486725663717</v>
+        <v>0.7731277533039648</v>
       </c>
       <c r="B404" t="n">
-        <v>0.991764705882353</v>
+        <v>0.9905992949471211</v>
       </c>
       <c r="C404" t="n">
         <v>0.07658212452409521</v>
@@ -4889,10 +4889,10 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>0.7809734513274337</v>
+        <v>0.7775330396475771</v>
       </c>
       <c r="B405" t="n">
-        <v>0.991764705882353</v>
+        <v>0.9905992949471211</v>
       </c>
       <c r="C405" t="n">
         <v>0.07615878638324114</v>
@@ -4900,10 +4900,10 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>0.7831858407079646</v>
+        <v>0.7797356828193832</v>
       </c>
       <c r="B406" t="n">
-        <v>0.9929411764705882</v>
+        <v>0.9917743830787309</v>
       </c>
       <c r="C406" t="n">
         <v>0.07614294085204185</v>
@@ -4911,10 +4911,10 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>0.7831858407079646</v>
+        <v>0.7797356828193832</v>
       </c>
       <c r="B407" t="n">
-        <v>0.9952941176470588</v>
+        <v>0.9941245593419507</v>
       </c>
       <c r="C407" t="n">
         <v>0.07557727433018764</v>
@@ -4922,10 +4922,10 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>0.7942477876106194</v>
+        <v>0.7907488986784141</v>
       </c>
       <c r="B408" t="n">
-        <v>0.9952941176470588</v>
+        <v>0.9941245593419507</v>
       </c>
       <c r="C408" t="n">
         <v>0.07556153989212701</v>
@@ -4933,10 +4933,10 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>0.8030973451327433</v>
+        <v>0.7995594713656388</v>
       </c>
       <c r="B409" t="n">
-        <v>0.9952941176470588</v>
+        <v>0.9941245593419507</v>
       </c>
       <c r="C409" t="n">
         <v>0.07499984196214264</v>
@@ -4944,10 +4944,10 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>0.8075221238938053</v>
+        <v>0.8039647577092511</v>
       </c>
       <c r="B410" t="n">
-        <v>0.9952941176470588</v>
+        <v>0.9941245593419507</v>
       </c>
       <c r="C410" t="n">
         <v>0.074984217988515</v>
@@ -4955,10 +4955,10 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>0.8141592920353983</v>
+        <v>0.8105726872246696</v>
       </c>
       <c r="B411" t="n">
-        <v>0.9952941176470588</v>
+        <v>0.9941245593419507</v>
       </c>
       <c r="C411" t="n">
         <v>0.07441095201297705</v>
@@ -4966,10 +4966,10 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>0.8163716814159292</v>
+        <v>0.8127753303964758</v>
       </c>
       <c r="B412" t="n">
-        <v>0.9952941176470588</v>
+        <v>0.9941245593419507</v>
       </c>
       <c r="C412" t="n">
         <v>0.07416650061482957</v>
@@ -4977,10 +4977,10 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>0.8207964601769911</v>
+        <v>0.8171806167400881</v>
       </c>
       <c r="B413" t="n">
-        <v>0.9976470588235294</v>
+        <v>0.9964747356051704</v>
       </c>
       <c r="C413" t="n">
         <v>0.07385712380989626</v>
@@ -4988,10 +4988,10 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>0.827433628318584</v>
+        <v>0.8237885462555066</v>
       </c>
       <c r="B414" t="n">
-        <v>0.9976470588235294</v>
+        <v>0.9964747356051704</v>
       </c>
       <c r="C414" t="n">
         <v>0.0738417188840597</v>
@@ -4999,10 +4999,10 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>0.8296460176991151</v>
+        <v>0.8259911894273128</v>
       </c>
       <c r="B415" t="n">
-        <v>0.9988235294117647</v>
+        <v>0.9976498237367802</v>
       </c>
       <c r="C415" t="n">
         <v>0.07329179190830706</v>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>0.838495575221239</v>
+        <v>0.8348017621145375</v>
       </c>
       <c r="B416" t="n">
-        <v>0.9988235294117647</v>
+        <v>0.9976498237367802</v>
       </c>
       <c r="C416" t="n">
         <v>0.07217306752940288</v>
@@ -5021,10 +5021,10 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>0.8429203539823009</v>
+        <v>0.8392070484581498</v>
       </c>
       <c r="B417" t="n">
-        <v>0.9988235294117647</v>
+        <v>0.9976498237367802</v>
       </c>
       <c r="C417" t="n">
         <v>0.07161962923511694</v>
@@ -5032,10 +5032,10 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>0.8495575221238938</v>
+        <v>0.8458149779735683</v>
       </c>
       <c r="B418" t="n">
-        <v>0.9988235294117647</v>
+        <v>0.9976498237367802</v>
       </c>
       <c r="C418" t="n">
         <v>0.06998273614933447</v>
@@ -5043,10 +5043,10 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>0.8517699115044248</v>
+        <v>0.8480176211453745</v>
       </c>
       <c r="B419" t="n">
-        <v>1</v>
+        <v>0.9988249118683902</v>
       </c>
       <c r="C419" t="n">
         <v>0.06718747287134305</v>
@@ -5054,10 +5054,10 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>0.8561946902654868</v>
+        <v>0.8524229074889867</v>
       </c>
       <c r="B420" t="n">
-        <v>1</v>
+        <v>0.9988249118683902</v>
       </c>
       <c r="C420" t="n">
         <v>0.06709431482969469</v>
@@ -5065,10 +5065,10 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>0.8628318584070797</v>
+        <v>0.8590308370044053</v>
       </c>
       <c r="B421" t="n">
-        <v>1</v>
+        <v>0.9988249118683902</v>
       </c>
       <c r="C421" t="n">
         <v>0.06634616847610209</v>
@@ -5076,10 +5076,10 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>0.8672566371681416</v>
+        <v>0.8634361233480177</v>
       </c>
       <c r="B422" t="n">
-        <v>1</v>
+        <v>0.9988249118683902</v>
       </c>
       <c r="C422" t="n">
         <v>0.06606344487006589</v>
@@ -5087,10 +5087,10 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>0.8805309734513275</v>
+        <v>0.8766519823788547</v>
       </c>
       <c r="B423" t="n">
-        <v>1</v>
+        <v>0.9988249118683902</v>
       </c>
       <c r="C423" t="n">
         <v>0.06576557758298367</v>
@@ -5098,10 +5098,10 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>0.8827433628318584</v>
+        <v>0.8788546255506607</v>
       </c>
       <c r="B424" t="n">
-        <v>1</v>
+        <v>0.9988249118683902</v>
       </c>
       <c r="C424" t="n">
         <v>0.06555354637653113</v>
@@ -5109,10 +5109,10 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>0.8938053097345132</v>
+        <v>0.8898678414096917</v>
       </c>
       <c r="B425" t="n">
-        <v>1</v>
+        <v>0.9988249118683902</v>
       </c>
       <c r="C425" t="n">
         <v>0.06532598848350346</v>
@@ -5120,10 +5120,10 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>0.9070796460176991</v>
+        <v>0.9030837004405287</v>
       </c>
       <c r="B426" t="n">
-        <v>1</v>
+        <v>0.9988249118683902</v>
       </c>
       <c r="C426" t="n">
         <v>0.06525781748055665</v>
@@ -5131,10 +5131,10 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>0.9092920353982301</v>
+        <v>0.9052863436123348</v>
       </c>
       <c r="B427" t="n">
-        <v>1</v>
+        <v>0.9988249118683902</v>
       </c>
       <c r="C427" t="n">
         <v>0.06504730933452452</v>
@@ -5142,10 +5142,10 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>0.9137168141592921</v>
+        <v>0.9096916299559471</v>
       </c>
       <c r="B428" t="n">
-        <v>1</v>
+        <v>0.9988249118683902</v>
       </c>
       <c r="C428" t="n">
         <v>0.0648213868538049</v>
@@ -5153,10 +5153,10 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>0.9203539823008849</v>
+        <v>0.9162995594713657</v>
       </c>
       <c r="B429" t="n">
-        <v>1</v>
+        <v>0.9988249118683902</v>
       </c>
       <c r="C429" t="n">
         <v>0.0647537059474055</v>
@@ -5164,10 +5164,10 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>0.9247787610619469</v>
+        <v>0.920704845814978</v>
       </c>
       <c r="B430" t="n">
-        <v>1</v>
+        <v>0.9988249118683902</v>
       </c>
       <c r="C430" t="n">
         <v>0.06425322095155311</v>
@@ -5175,10 +5175,10 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>0.9380530973451328</v>
+        <v>0.933920704845815</v>
       </c>
       <c r="B431" t="n">
-        <v>1</v>
+        <v>0.9988249118683902</v>
       </c>
       <c r="C431" t="n">
         <v>0.06382305012307145</v>
@@ -5186,7 +5186,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>0.9424778761061947</v>
+        <v>0.9361233480176211</v>
       </c>
       <c r="B432" t="n">
         <v>1</v>
@@ -5197,7 +5197,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>0.9446902654867256</v>
+        <v>0.9383259911894273</v>
       </c>
       <c r="B433" t="n">
         <v>1</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>0.9535398230088495</v>
+        <v>0.947136563876652</v>
       </c>
       <c r="B434" t="n">
         <v>1</v>
@@ -5219,7 +5219,7 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>0.9579646017699115</v>
+        <v>0.9515418502202643</v>
       </c>
       <c r="B435" t="n">
         <v>1</v>
@@ -5230,7 +5230,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>0.9623893805309734</v>
+        <v>0.9559471365638766</v>
       </c>
       <c r="B436" t="n">
         <v>1</v>
@@ -5241,7 +5241,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>0.9712389380530974</v>
+        <v>0.9647577092511013</v>
       </c>
       <c r="B437" t="n">
         <v>1</v>
@@ -5252,7 +5252,7 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>0.9756637168141593</v>
+        <v>0.9691629955947136</v>
       </c>
       <c r="B438" t="n">
         <v>1</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>0.9800884955752213</v>
+        <v>0.973568281938326</v>
       </c>
       <c r="B439" t="n">
         <v>1</v>
@@ -5274,7 +5274,7 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>0.9823008849557522</v>
+        <v>0.9757709251101322</v>
       </c>
       <c r="B440" t="n">
         <v>1</v>
@@ -5285,7 +5285,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>0.9889380530973452</v>
+        <v>0.9823788546255506</v>
       </c>
       <c r="B441" t="n">
         <v>1</v>
@@ -5296,23 +5296,45 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>0.995575221238938</v>
+        <v>0.986784140969163</v>
       </c>
       <c r="B442" t="n">
         <v>1</v>
       </c>
       <c r="C442" t="n">
-        <v>0.05460013777281177</v>
+        <v>0.05678076069349787</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>1</v>
+        <v>0.9933920704845814</v>
       </c>
       <c r="B443" t="n">
         <v>1</v>
       </c>
       <c r="C443" t="n">
+        <v>0.05502985423309523</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>0.9955947136563876</v>
+      </c>
+      <c r="B444" t="n">
+        <v>1</v>
+      </c>
+      <c r="C444" t="n">
+        <v>0.05460013777281177</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>1</v>
+      </c>
+      <c r="B445" t="n">
+        <v>1</v>
+      </c>
+      <c r="C445" t="n">
         <v>0.05417358450822088</v>
       </c>
     </row>
@@ -5344,7 +5366,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.645926600728787</v>
+        <v>0.6468018967061295</v>
       </c>
     </row>
   </sheetData>
@@ -5385,7 +5407,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -5398,7 +5420,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C3" t="n">
         <v>18</v>
